--- a/storage/car_0.xlsx
+++ b/storage/car_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="70">
   <si>
     <t>type</t>
   </si>
@@ -193,7 +193,7 @@
     <t>7,6,3,2,5,0,1,4</t>
   </si>
   <si>
-    <t>nan,3,2,1,0</t>
+    <t>4,6,3,5,0,7,2,1</t>
   </si>
   <si>
     <t>nan,1,2,3,0</t>
@@ -202,19 +202,25 @@
     <t>1,3,nan,0,2</t>
   </si>
   <si>
+    <t>4,3,5,2</t>
+  </si>
+  <si>
     <t>nan,7,5,6,0,1,4</t>
   </si>
   <si>
+    <t>4,6,3,5,0,7,2,9,10,11,1,8</t>
+  </si>
+  <si>
     <t>A_XB3</t>
   </si>
   <si>
-    <t>A_XB2</t>
+    <t>A_DF2</t>
   </si>
   <si>
     <t>B_DF2</t>
   </si>
   <si>
-    <t>B_DF1</t>
+    <t>A_O</t>
   </si>
   <si>
     <t>A_DF3</t>
@@ -609,7 +615,7 @@
         <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E2">
         <v>994</v>
@@ -626,7 +632,7 @@
         <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E3">
         <v>1776</v>
@@ -643,7 +649,7 @@
         <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E4">
         <v>1372</v>
@@ -660,10 +666,10 @@
         <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E5">
-        <v>440</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -677,7 +683,7 @@
         <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E6">
         <v>490</v>
@@ -694,7 +700,7 @@
         <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E7">
         <v>490</v>
@@ -711,7 +717,7 @@
         <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E8">
         <v>490</v>
@@ -725,7 +731,7 @@
         <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -739,7 +745,7 @@
         <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -753,7 +759,7 @@
         <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -767,7 +773,7 @@
         <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -781,7 +787,7 @@
         <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -794,11 +800,14 @@
       <c r="B14" t="s">
         <v>53</v>
       </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -809,7 +818,7 @@
         <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -823,7 +832,7 @@
         <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -840,7 +849,7 @@
         <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E17">
         <v>994</v>
@@ -854,10 +863,10 @@
         <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E18">
         <v>994</v>
@@ -871,13 +880,13 @@
         <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E19">
-        <v>440</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -888,13 +897,13 @@
         <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E20">
-        <v>440</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -908,7 +917,7 @@
         <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E21">
         <v>490</v>
@@ -925,7 +934,7 @@
         <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E22">
         <v>490</v>
@@ -942,7 +951,7 @@
         <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E23">
         <v>490</v>
@@ -956,7 +965,7 @@
         <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -970,7 +979,7 @@
         <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -984,7 +993,7 @@
         <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -998,7 +1007,7 @@
         <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1012,7 +1021,7 @@
         <v>54</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1026,7 +1035,7 @@
         <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1040,7 +1049,7 @@
         <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1054,7 +1063,7 @@
         <v>54</v>
       </c>
       <c r="D31" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1068,7 +1077,7 @@
         <v>54</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1082,7 +1091,7 @@
         <v>54</v>
       </c>
       <c r="D33" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1096,7 +1105,7 @@
         <v>54</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1110,7 +1119,7 @@
         <v>55</v>
       </c>
       <c r="D35" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1124,7 +1133,7 @@
         <v>55</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1138,7 +1147,7 @@
         <v>55</v>
       </c>
       <c r="D37" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1152,7 +1161,7 @@
         <v>55</v>
       </c>
       <c r="D38" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1166,7 +1175,7 @@
         <v>55</v>
       </c>
       <c r="D39" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1180,7 +1189,7 @@
         <v>55</v>
       </c>
       <c r="D40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1194,7 +1203,7 @@
         <v>55</v>
       </c>
       <c r="D41" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1208,7 +1217,7 @@
         <v>55</v>
       </c>
       <c r="D42" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1222,7 +1231,7 @@
         <v>55</v>
       </c>
       <c r="D43" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1236,7 +1245,7 @@
         <v>55</v>
       </c>
       <c r="D44" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1250,7 +1259,7 @@
         <v>55</v>
       </c>
       <c r="D45" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1264,7 +1273,7 @@
         <v>55</v>
       </c>
       <c r="D46" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1278,7 +1287,7 @@
         <v>55</v>
       </c>
       <c r="D47" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1292,7 +1301,7 @@
         <v>55</v>
       </c>
       <c r="D48" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1306,7 +1315,7 @@
         <v>55</v>
       </c>
       <c r="D49" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E49">
         <v>0</v>

--- a/storage/car_0.xlsx
+++ b/storage/car_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="62">
   <si>
     <t>type</t>
   </si>
@@ -184,46 +184,22 @@
     <t>C</t>
   </si>
   <si>
-    <t>3,1,5,nan,0,4,2</t>
-  </si>
-  <si>
-    <t>7,11,6,10,9,5,0,1,8,4</t>
-  </si>
-  <si>
-    <t>7,6,3,2,5,0,1,4</t>
-  </si>
-  <si>
-    <t>4,6,3,5,0,7,2,1</t>
-  </si>
-  <si>
-    <t>nan,1,2,3,0</t>
-  </si>
-  <si>
-    <t>1,3,nan,0,2</t>
-  </si>
-  <si>
-    <t>4,3,5,2</t>
-  </si>
-  <si>
-    <t>nan,7,5,6,0,1,4</t>
-  </si>
-  <si>
-    <t>4,6,3,5,0,7,2,9,10,11,1,8</t>
-  </si>
-  <si>
-    <t>A_XB3</t>
-  </si>
-  <si>
-    <t>A_DF2</t>
+    <t>1,2,0</t>
+  </si>
+  <si>
+    <t>2,0,1</t>
+  </si>
+  <si>
+    <t>A_O</t>
+  </si>
+  <si>
+    <t>A_DF3</t>
+  </si>
+  <si>
+    <t>B_O</t>
   </si>
   <si>
     <t>B_DF2</t>
-  </si>
-  <si>
-    <t>A_O</t>
-  </si>
-  <si>
-    <t>A_DF3</t>
   </si>
 </sst>
 </file>
@@ -615,10 +591,10 @@
         <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E2">
-        <v>994</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -629,13 +605,13 @@
         <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E3">
-        <v>1776</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -646,13 +622,13 @@
         <v>53</v>
       </c>
       <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
         <v>58</v>
       </c>
-      <c r="D4" t="s">
-        <v>65</v>
-      </c>
       <c r="E4">
-        <v>1372</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -663,13 +639,13 @@
         <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E5">
-        <v>1234</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -680,13 +656,13 @@
         <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E6">
-        <v>490</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -696,14 +672,14 @@
       <c r="B7" t="s">
         <v>53</v>
       </c>
-      <c r="C7" t="s">
-        <v>60</v>
+      <c r="C7">
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E7">
-        <v>490</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -713,14 +689,14 @@
       <c r="B8" t="s">
         <v>53</v>
       </c>
-      <c r="C8" t="s">
-        <v>61</v>
+      <c r="C8">
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E8">
-        <v>490</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -730,8 +706,11 @@
       <c r="B9" t="s">
         <v>53</v>
       </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -744,8 +723,11 @@
       <c r="B10" t="s">
         <v>53</v>
       </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -758,11 +740,14 @@
       <c r="B11" t="s">
         <v>53</v>
       </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -772,8 +757,11 @@
       <c r="B12" t="s">
         <v>53</v>
       </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -786,8 +774,11 @@
       <c r="B13" t="s">
         <v>53</v>
       </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -800,14 +791,14 @@
       <c r="B14" t="s">
         <v>53</v>
       </c>
-      <c r="C14" t="s">
-        <v>62</v>
+      <c r="C14">
+        <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E14">
-        <v>1554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -817,8 +808,11 @@
       <c r="B15" t="s">
         <v>53</v>
       </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -831,8 +825,11 @@
       <c r="B16" t="s">
         <v>53</v>
       </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -845,14 +842,14 @@
       <c r="B17" t="s">
         <v>54</v>
       </c>
-      <c r="C17" t="s">
-        <v>56</v>
+      <c r="C17">
+        <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E17">
-        <v>994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -862,14 +859,14 @@
       <c r="B18" t="s">
         <v>54</v>
       </c>
-      <c r="C18" t="s">
-        <v>63</v>
+      <c r="C18">
+        <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E18">
-        <v>994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -879,14 +876,14 @@
       <c r="B19" t="s">
         <v>54</v>
       </c>
-      <c r="C19" t="s">
-        <v>58</v>
+      <c r="C19">
+        <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E19">
-        <v>1372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -896,14 +893,14 @@
       <c r="B20" t="s">
         <v>54</v>
       </c>
-      <c r="C20" t="s">
-        <v>64</v>
+      <c r="C20">
+        <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E20">
-        <v>2838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -913,14 +910,14 @@
       <c r="B21" t="s">
         <v>54</v>
       </c>
-      <c r="C21" t="s">
-        <v>60</v>
+      <c r="C21">
+        <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E21">
-        <v>490</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -930,14 +927,14 @@
       <c r="B22" t="s">
         <v>54</v>
       </c>
-      <c r="C22" t="s">
-        <v>60</v>
+      <c r="C22">
+        <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E22">
-        <v>490</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -947,14 +944,14 @@
       <c r="B23" t="s">
         <v>54</v>
       </c>
-      <c r="C23" t="s">
-        <v>61</v>
+      <c r="C23">
+        <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E23">
-        <v>490</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -964,8 +961,11 @@
       <c r="B24" t="s">
         <v>54</v>
       </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -978,8 +978,11 @@
       <c r="B25" t="s">
         <v>54</v>
       </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -992,8 +995,11 @@
       <c r="B26" t="s">
         <v>54</v>
       </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1006,11 +1012,14 @@
       <c r="B27" t="s">
         <v>54</v>
       </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1020,8 +1029,11 @@
       <c r="B28" t="s">
         <v>54</v>
       </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1034,8 +1046,11 @@
       <c r="B29" t="s">
         <v>54</v>
       </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1048,8 +1063,11 @@
       <c r="B30" t="s">
         <v>54</v>
       </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
       <c r="D30" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1062,8 +1080,11 @@
       <c r="B31" t="s">
         <v>54</v>
       </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1076,8 +1097,11 @@
       <c r="B32" t="s">
         <v>54</v>
       </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1090,8 +1114,11 @@
       <c r="B33" t="s">
         <v>54</v>
       </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
       <c r="D33" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1104,8 +1131,11 @@
       <c r="B34" t="s">
         <v>54</v>
       </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1118,8 +1148,11 @@
       <c r="B35" t="s">
         <v>55</v>
       </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
       <c r="D35" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1132,8 +1165,11 @@
       <c r="B36" t="s">
         <v>55</v>
       </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1146,8 +1182,11 @@
       <c r="B37" t="s">
         <v>55</v>
       </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
       <c r="D37" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1160,8 +1199,11 @@
       <c r="B38" t="s">
         <v>55</v>
       </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
       <c r="D38" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1174,8 +1216,11 @@
       <c r="B39" t="s">
         <v>55</v>
       </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
       <c r="D39" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1188,8 +1233,11 @@
       <c r="B40" t="s">
         <v>55</v>
       </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
       <c r="D40" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1202,11 +1250,14 @@
       <c r="B41" t="s">
         <v>55</v>
       </c>
+      <c r="C41" t="s">
+        <v>57</v>
+      </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1216,8 +1267,11 @@
       <c r="B42" t="s">
         <v>55</v>
       </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
       <c r="D42" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1230,8 +1284,11 @@
       <c r="B43" t="s">
         <v>55</v>
       </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
       <c r="D43" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1244,8 +1301,11 @@
       <c r="B44" t="s">
         <v>55</v>
       </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
       <c r="D44" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1258,8 +1318,11 @@
       <c r="B45" t="s">
         <v>55</v>
       </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
       <c r="D45" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1272,8 +1335,11 @@
       <c r="B46" t="s">
         <v>55</v>
       </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
       <c r="D46" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1286,8 +1352,11 @@
       <c r="B47" t="s">
         <v>55</v>
       </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
       <c r="D47" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1300,8 +1369,11 @@
       <c r="B48" t="s">
         <v>55</v>
       </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
       <c r="D48" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1314,8 +1386,11 @@
       <c r="B49" t="s">
         <v>55</v>
       </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
       <c r="D49" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E49">
         <v>0</v>

--- a/storage/car_0.xlsx
+++ b/storage/car_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="105">
   <si>
     <t>type</t>
   </si>
@@ -184,22 +184,151 @@
     <t>C</t>
   </si>
   <si>
-    <t>1,2,0</t>
-  </si>
-  <si>
-    <t>2,0,1</t>
+    <t>367,288,335,212,249,399,245,256,247,253,398,215,187,246,252,426,427,287,274,244,337,251,183,213,334,336,243,368,182,255,273,248,214,250,0,188,254</t>
+  </si>
+  <si>
+    <t>367,218,335,244,212,337,183,213,399,219,334,336,243,398,368,215,182,426,270,427,269,214,0</t>
+  </si>
+  <si>
+    <t>367,218,244,212,183,213,399,245,219,279,243,398,368,215,246,182,273,426,427,280,214,0,274</t>
+  </si>
+  <si>
+    <t>218,244,212,183,213,399,219,279,243,398,215,182,426,427,280,214,0</t>
+  </si>
+  <si>
+    <t>367,244,212,249,426,213,399,427,214,250,0,243,398,368,215</t>
+  </si>
+  <si>
+    <t>367,212,426,213,399,427,214,0,398,368,215</t>
+  </si>
+  <si>
+    <t>367,426,399,427,214,0,398,368,215</t>
+  </si>
+  <si>
+    <t>367,335,337,426,151,399,427,334,336,0,150,398,368</t>
+  </si>
+  <si>
+    <t>335,337,426,399,427,334,336,0,398</t>
+  </si>
+  <si>
+    <t>365,367,366,334,335,337,336,0,368</t>
+  </si>
+  <si>
+    <t>367,295,281,325,317,180,299,290,285,346,291,253,185,298,398,215,246,323,252,265,348,294,343,270,427,324,300,287,211,312,350,292,275,244,176,349,271,213,353,263,329,282,327,283,354,315,321,316,257,202,362,296,255,207,293,273,347,204,250,340,206,344,313,345,330,288,212,249,399,326,245,328,256,279,247,209,208,310,352,284,179,360,426,203,201,318,269,268,276,342,322,319,274,272,251,210,183,266,177,314,331,267,184,243,181,361,289,368,264,182,351,178,355,248,280,301,214,311,286,359,242,320,357,0,341,356,254</t>
+  </si>
+  <si>
+    <t>208,313,215,214,361,181,0,204,203,263,312,298,206,314,360,179,340,311,280,281,176,300,310,282,362,359,299,209,180,318,201,343,211,244,207,202,322,270,344,213,342,321,177,316,264,182,279,320,323,269,183,341,319,178,317,212,345,301,210,315,245</t>
+  </si>
+  <si>
+    <t>208,214,361,181,0,203,204,298,206,242,360,179,311,184,176,310,243,362,359,205,299,201,211,244,207,202,270,213,177,182,269,183,178,212,245</t>
+  </si>
+  <si>
+    <t>211,244,181,214,0,270,213,298,242,311,182,269,184,183,310,243,212,299,245</t>
+  </si>
+  <si>
+    <t>274,299,182,212,213,244,183,279,0,245,273,280,215,214,298</t>
+  </si>
+  <si>
+    <t>151,150,218,219,0,243,244</t>
+  </si>
+  <si>
+    <t>249,243,365,367,366,250,244,0,368</t>
+  </si>
+  <si>
+    <t>243,279,244,0,280</t>
+  </si>
+  <si>
+    <t>367,182,426,399,427,0,181,398,368</t>
+  </si>
+  <si>
+    <t>0,182,181</t>
+  </si>
+  <si>
+    <t>335,0,334</t>
+  </si>
+  <si>
+    <t>0,334,335</t>
+  </si>
+  <si>
+    <t>0,273,274</t>
+  </si>
+  <si>
+    <t>246,244,0,243,245</t>
+  </si>
+  <si>
+    <t>367,299,399,298,181,310,398,368,182,273,426,427,311,340,0,274,341</t>
+  </si>
+  <si>
+    <t>279,340,0,181,182,280,341</t>
+  </si>
+  <si>
+    <t>183,177,176,182,287,341,340,288,0</t>
+  </si>
+  <si>
+    <t>206,288,310,213,287,207,311,212,0</t>
+  </si>
+  <si>
+    <t>310,213,211,176,183,201,181,0,269,177,311,203,212,204,214,182,202,270,184</t>
+  </si>
+  <si>
+    <t>279,213,0,212,280,270,269</t>
+  </si>
+  <si>
+    <t>0,310,182,311,244,181,243</t>
+  </si>
+  <si>
+    <t>151,187,190,150,188,0,189</t>
+  </si>
+  <si>
+    <t>0,335,334,368,367</t>
+  </si>
+  <si>
+    <t>273,0,274</t>
+  </si>
+  <si>
+    <t>176,182,213,184,177,186,181,299,185,212,244,183,279,0,245,280,298</t>
+  </si>
+  <si>
+    <t>281,282,280,275,246,243,273,278,0,258,274,183,245,182,368,367,244,257,277,279,276</t>
+  </si>
+  <si>
+    <t>0,310,311,257,258</t>
+  </si>
+  <si>
+    <t>212,0,244,213,341,340,274,176,273,177,245</t>
+  </si>
+  <si>
+    <t>311,244,310,207,243,0,273,206,274</t>
+  </si>
+  <si>
+    <t>B_O</t>
+  </si>
+  <si>
+    <t>B_XB2</t>
+  </si>
+  <si>
+    <t>A_XB2</t>
+  </si>
+  <si>
+    <t>B_DF3</t>
+  </si>
+  <si>
+    <t>A_XN2</t>
+  </si>
+  <si>
+    <t>A_DF1</t>
   </si>
   <si>
     <t>A_O</t>
   </si>
   <si>
-    <t>A_DF3</t>
-  </si>
-  <si>
-    <t>B_O</t>
+    <t>B_XB3</t>
   </si>
   <si>
     <t>B_DF2</t>
+  </si>
+  <si>
+    <t>A_DF2</t>
   </si>
 </sst>
 </file>
@@ -591,10 +720,10 @@
         <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="E2">
-        <v>250</v>
+        <v>9632</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -605,13 +734,13 @@
         <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="E3">
-        <v>250</v>
+        <v>6520</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -622,13 +751,13 @@
         <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="E4">
-        <v>250</v>
+        <v>5778</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -639,13 +768,13 @@
         <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="E5">
-        <v>250</v>
+        <v>3744</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -656,13 +785,13 @@
         <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="E6">
-        <v>250</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -672,14 +801,14 @@
       <c r="B7" t="s">
         <v>53</v>
       </c>
-      <c r="C7">
-        <v>0</v>
+      <c r="C7" t="s">
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -689,14 +818,14 @@
       <c r="B8" t="s">
         <v>53</v>
       </c>
-      <c r="C8">
-        <v>0</v>
+      <c r="C8" t="s">
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -706,14 +835,14 @@
       <c r="B9" t="s">
         <v>53</v>
       </c>
-      <c r="C9">
-        <v>0</v>
+      <c r="C9" t="s">
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>3812</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -723,14 +852,14 @@
       <c r="B10" t="s">
         <v>53</v>
       </c>
-      <c r="C10">
-        <v>0</v>
+      <c r="C10" t="s">
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -741,13 +870,13 @@
         <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="E11">
-        <v>200</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -757,14 +886,14 @@
       <c r="B12" t="s">
         <v>53</v>
       </c>
-      <c r="C12">
-        <v>0</v>
+      <c r="C12" t="s">
+        <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>25762</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -774,14 +903,14 @@
       <c r="B13" t="s">
         <v>53</v>
       </c>
-      <c r="C13">
-        <v>0</v>
+      <c r="C13" t="s">
+        <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>12338</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -791,14 +920,14 @@
       <c r="B14" t="s">
         <v>53</v>
       </c>
-      <c r="C14">
-        <v>0</v>
+      <c r="C14" t="s">
+        <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>6310</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -808,14 +937,14 @@
       <c r="B15" t="s">
         <v>53</v>
       </c>
-      <c r="C15">
-        <v>0</v>
+      <c r="C15" t="s">
+        <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -825,14 +954,14 @@
       <c r="B16" t="s">
         <v>53</v>
       </c>
-      <c r="C16">
-        <v>0</v>
+      <c r="C16" t="s">
+        <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -842,14 +971,14 @@
       <c r="B17" t="s">
         <v>54</v>
       </c>
-      <c r="C17">
-        <v>0</v>
+      <c r="C17" t="s">
+        <v>71</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>854</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -859,14 +988,14 @@
       <c r="B18" t="s">
         <v>54</v>
       </c>
-      <c r="C18">
-        <v>0</v>
+      <c r="C18" t="s">
+        <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>894</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -876,14 +1005,14 @@
       <c r="B19" t="s">
         <v>54</v>
       </c>
-      <c r="C19">
-        <v>0</v>
+      <c r="C19" t="s">
+        <v>73</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>352</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -893,14 +1022,14 @@
       <c r="B20" t="s">
         <v>54</v>
       </c>
-      <c r="C20">
-        <v>0</v>
+      <c r="C20" t="s">
+        <v>73</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -910,14 +1039,14 @@
       <c r="B21" t="s">
         <v>54</v>
       </c>
-      <c r="C21">
-        <v>0</v>
+      <c r="C21" t="s">
+        <v>74</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -927,14 +1056,14 @@
       <c r="B22" t="s">
         <v>54</v>
       </c>
-      <c r="C22">
-        <v>0</v>
+      <c r="C22" t="s">
+        <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -944,14 +1073,14 @@
       <c r="B23" t="s">
         <v>54</v>
       </c>
-      <c r="C23">
-        <v>0</v>
+      <c r="C23" t="s">
+        <v>76</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -961,14 +1090,14 @@
       <c r="B24" t="s">
         <v>54</v>
       </c>
-      <c r="C24">
-        <v>0</v>
+      <c r="C24" t="s">
+        <v>77</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -978,14 +1107,14 @@
       <c r="B25" t="s">
         <v>54</v>
       </c>
-      <c r="C25">
-        <v>0</v>
+      <c r="C25" t="s">
+        <v>78</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -995,14 +1124,14 @@
       <c r="B26" t="s">
         <v>54</v>
       </c>
-      <c r="C26">
-        <v>0</v>
+      <c r="C26" t="s">
+        <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1013,13 +1142,13 @@
         <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="E27">
-        <v>200</v>
+        <v>974</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1029,14 +1158,14 @@
       <c r="B28" t="s">
         <v>54</v>
       </c>
-      <c r="C28">
-        <v>0</v>
+      <c r="C28" t="s">
+        <v>80</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1046,14 +1175,14 @@
       <c r="B29" t="s">
         <v>54</v>
       </c>
-      <c r="C29">
-        <v>0</v>
+      <c r="C29" t="s">
+        <v>81</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>902</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1063,14 +1192,14 @@
       <c r="B30" t="s">
         <v>54</v>
       </c>
-      <c r="C30">
-        <v>0</v>
+      <c r="C30" t="s">
+        <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1080,14 +1209,14 @@
       <c r="B31" t="s">
         <v>54</v>
       </c>
-      <c r="C31">
-        <v>0</v>
+      <c r="C31" t="s">
+        <v>83</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1097,14 +1226,14 @@
       <c r="B32" t="s">
         <v>54</v>
       </c>
-      <c r="C32">
-        <v>0</v>
+      <c r="C32" t="s">
+        <v>84</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1114,14 +1243,14 @@
       <c r="B33" t="s">
         <v>54</v>
       </c>
-      <c r="C33">
-        <v>0</v>
+      <c r="C33" t="s">
+        <v>85</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>904</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1131,14 +1260,14 @@
       <c r="B34" t="s">
         <v>54</v>
       </c>
-      <c r="C34">
-        <v>0</v>
+      <c r="C34" t="s">
+        <v>86</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>904</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1148,14 +1277,14 @@
       <c r="B35" t="s">
         <v>55</v>
       </c>
-      <c r="C35">
-        <v>0</v>
+      <c r="C35" t="s">
+        <v>87</v>
       </c>
       <c r="D35" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1165,14 +1294,14 @@
       <c r="B36" t="s">
         <v>55</v>
       </c>
-      <c r="C36">
-        <v>0</v>
+      <c r="C36" t="s">
+        <v>88</v>
       </c>
       <c r="D36" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1182,14 +1311,14 @@
       <c r="B37" t="s">
         <v>55</v>
       </c>
-      <c r="C37">
-        <v>0</v>
+      <c r="C37" t="s">
+        <v>77</v>
       </c>
       <c r="D37" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1199,14 +1328,14 @@
       <c r="B38" t="s">
         <v>55</v>
       </c>
-      <c r="C38">
-        <v>0</v>
+      <c r="C38" t="s">
+        <v>89</v>
       </c>
       <c r="D38" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1216,14 +1345,14 @@
       <c r="B39" t="s">
         <v>55</v>
       </c>
-      <c r="C39">
-        <v>0</v>
+      <c r="C39" t="s">
+        <v>89</v>
       </c>
       <c r="D39" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>302</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1237,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1250,14 +1379,14 @@
       <c r="B41" t="s">
         <v>55</v>
       </c>
-      <c r="C41" t="s">
-        <v>57</v>
+      <c r="C41">
+        <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="E41">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1271,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1288,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1305,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1318,14 +1447,14 @@
       <c r="B45" t="s">
         <v>55</v>
       </c>
-      <c r="C45">
-        <v>0</v>
+      <c r="C45" t="s">
+        <v>90</v>
       </c>
       <c r="D45" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1335,14 +1464,14 @@
       <c r="B46" t="s">
         <v>55</v>
       </c>
-      <c r="C46">
-        <v>0</v>
+      <c r="C46" t="s">
+        <v>91</v>
       </c>
       <c r="D46" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>3956</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1352,14 +1481,14 @@
       <c r="B47" t="s">
         <v>55</v>
       </c>
-      <c r="C47">
-        <v>0</v>
+      <c r="C47" t="s">
+        <v>92</v>
       </c>
       <c r="D47" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>450</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1369,14 +1498,14 @@
       <c r="B48" t="s">
         <v>55</v>
       </c>
-      <c r="C48">
-        <v>0</v>
+      <c r="C48" t="s">
+        <v>93</v>
       </c>
       <c r="D48" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1386,14 +1515,14 @@
       <c r="B49" t="s">
         <v>55</v>
       </c>
-      <c r="C49">
-        <v>0</v>
+      <c r="C49" t="s">
+        <v>94</v>
       </c>
       <c r="D49" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1434</v>
       </c>
     </row>
   </sheetData>

--- a/storage/car_0.xlsx
+++ b/storage/car_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="105">
   <si>
     <t>type</t>
   </si>
@@ -193,16 +193,16 @@
     <t>367,218,244,212,183,213,399,245,219,279,243,398,368,215,246,182,273,426,427,280,214,0,274</t>
   </si>
   <si>
-    <t>218,244,212,183,213,399,219,279,243,398,215,182,426,427,280,214,0</t>
-  </si>
-  <si>
-    <t>367,244,212,249,426,213,399,427,214,250,0,243,398,368,215</t>
-  </si>
-  <si>
-    <t>367,212,426,213,399,427,214,0,398,368,215</t>
-  </si>
-  <si>
-    <t>367,426,399,427,214,0,398,368,215</t>
+    <t>427,279,214,183,398,257,244,280,399,182,215,0,426,258,212,243,213,219,218</t>
+  </si>
+  <si>
+    <t>427,249,214,398,257,368,250,244,399,215,0,426,258,212,243,367,213</t>
+  </si>
+  <si>
+    <t>427,214,215,0,257,398,368,426,258,212,399,367,213</t>
+  </si>
+  <si>
+    <t>0,399,367,319,427,426,318,214,215,398,368</t>
   </si>
   <si>
     <t>367,335,337,426,151,399,427,334,336,0,150,398,368</t>
@@ -214,7 +214,7 @@
     <t>365,367,366,334,335,337,336,0,368</t>
   </si>
   <si>
-    <t>367,295,281,325,317,180,299,290,285,346,291,253,185,298,398,215,246,323,252,265,348,294,343,270,427,324,300,287,211,312,350,292,275,244,176,349,271,213,353,263,329,282,327,283,354,315,321,316,257,202,362,296,255,207,293,273,347,204,250,340,206,344,313,345,330,288,212,249,399,326,245,328,256,279,247,209,208,310,352,284,179,360,426,203,201,318,269,268,276,342,322,319,274,272,251,210,183,266,177,314,331,267,184,243,181,361,289,368,264,182,351,178,355,248,280,301,214,311,286,359,242,320,357,0,341,356,254</t>
+    <t>285,333,359,251,180,264,177,184,310,0,427,269,266,254,294,346,295,210,265,342,354,315,331,283,321,204,202,357,178,287,203,292,340,246,282,322,311,314,268,257,289,209,185,182,313,212,245,249,324,252,279,316,353,347,248,349,179,356,253,351,299,325,244,280,326,213,298,368,344,242,176,207,367,320,215,398,301,263,288,291,362,399,272,290,214,360,201,332,255,247,243,328,312,426,330,270,318,256,284,211,206,275,350,319,274,300,281,183,296,348,181,317,267,286,273,352,341,345,329,271,208,250,293,343,276,361,323,327,355</t>
   </si>
   <si>
     <t>208,313,215,214,361,181,0,204,203,263,312,298,206,314,360,179,340,311,280,281,176,300,310,282,362,359,299,209,180,318,201,343,211,244,207,202,322,270,344,213,342,321,177,316,264,182,279,320,323,269,183,341,319,178,317,212,345,301,210,315,245</t>
@@ -253,7 +253,7 @@
     <t>0,273,274</t>
   </si>
   <si>
-    <t>246,244,0,243,245</t>
+    <t>246,0,243,319,244,245,318</t>
   </si>
   <si>
     <t>367,299,399,298,181,310,398,368,182,273,426,427,311,340,0,274,341</t>
@@ -286,6 +286,9 @@
     <t>273,0,274</t>
   </si>
   <si>
+    <t>0,366,365,367,368</t>
+  </si>
+  <si>
     <t>176,182,213,184,177,186,181,299,185,212,244,183,279,0,245,280,298</t>
   </si>
   <si>
@@ -304,25 +307,22 @@
     <t>B_O</t>
   </si>
   <si>
+    <t>A_XB2</t>
+  </si>
+  <si>
+    <t>B_DF3</t>
+  </si>
+  <si>
+    <t>A_XN2</t>
+  </si>
+  <si>
+    <t>A_DF1</t>
+  </si>
+  <si>
+    <t>A_O</t>
+  </si>
+  <si>
     <t>B_XB2</t>
-  </si>
-  <si>
-    <t>A_XB2</t>
-  </si>
-  <si>
-    <t>B_DF3</t>
-  </si>
-  <si>
-    <t>A_XN2</t>
-  </si>
-  <si>
-    <t>A_DF1</t>
-  </si>
-  <si>
-    <t>A_O</t>
-  </si>
-  <si>
-    <t>B_XB3</t>
   </si>
   <si>
     <t>B_DF2</t>
@@ -720,7 +720,7 @@
         <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E2">
         <v>9632</v>
@@ -737,7 +737,7 @@
         <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E3">
         <v>6520</v>
@@ -754,7 +754,7 @@
         <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E4">
         <v>5778</v>
@@ -774,7 +774,7 @@
         <v>96</v>
       </c>
       <c r="E5">
-        <v>3744</v>
+        <v>4036</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -791,7 +791,7 @@
         <v>96</v>
       </c>
       <c r="E6">
-        <v>3122</v>
+        <v>3414</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -808,7 +808,7 @@
         <v>96</v>
       </c>
       <c r="E7">
-        <v>2820</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -825,7 +825,7 @@
         <v>96</v>
       </c>
       <c r="E8">
-        <v>2338</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -839,7 +839,7 @@
         <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E9">
         <v>3812</v>
@@ -856,7 +856,7 @@
         <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E10">
         <v>2208</v>
@@ -893,7 +893,7 @@
         <v>96</v>
       </c>
       <c r="E12">
-        <v>25762</v>
+        <v>26054</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1043,7 +1043,7 @@
         <v>74</v>
       </c>
       <c r="D21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E21">
         <v>2306</v>
@@ -1145,10 +1145,10 @@
         <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E27">
-        <v>974</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1162,7 +1162,7 @@
         <v>80</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E28">
         <v>2508</v>
@@ -1298,7 +1298,7 @@
         <v>88</v>
       </c>
       <c r="D36" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E36">
         <v>1004</v>
@@ -1362,14 +1362,14 @@
       <c r="B40" t="s">
         <v>55</v>
       </c>
-      <c r="C40">
-        <v>0</v>
+      <c r="C40" t="s">
+        <v>90</v>
       </c>
       <c r="D40" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>390</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1448,7 +1448,7 @@
         <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D45" t="s">
         <v>98</v>
@@ -1465,10 +1465,10 @@
         <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D46" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E46">
         <v>3956</v>
@@ -1482,7 +1482,7 @@
         <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D47" t="s">
         <v>103</v>
@@ -1499,7 +1499,7 @@
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D48" t="s">
         <v>103</v>
@@ -1516,7 +1516,7 @@
         <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D49" t="s">
         <v>98</v>

--- a/storage/car_0.xlsx
+++ b/storage/car_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="107">
   <si>
     <t>type</t>
   </si>
@@ -184,49 +184,49 @@
     <t>C</t>
   </si>
   <si>
-    <t>367,288,335,212,249,399,245,256,247,253,398,215,187,246,252,426,427,287,274,244,337,251,183,213,334,336,243,368,182,255,273,248,214,250,0,188,254</t>
-  </si>
-  <si>
-    <t>367,218,335,244,212,337,183,213,399,219,334,336,243,398,368,215,182,426,270,427,269,214,0</t>
-  </si>
-  <si>
-    <t>367,218,244,212,183,213,399,245,219,279,243,398,368,215,246,182,273,426,427,280,214,0,274</t>
-  </si>
-  <si>
-    <t>427,279,214,183,398,257,244,280,399,182,215,0,426,258,212,243,213,219,218</t>
-  </si>
-  <si>
-    <t>427,249,214,398,257,368,250,244,399,215,0,426,258,212,243,367,213</t>
-  </si>
-  <si>
-    <t>427,214,215,0,257,398,368,426,258,212,399,367,213</t>
-  </si>
-  <si>
-    <t>0,399,367,319,427,426,318,214,215,398,368</t>
-  </si>
-  <si>
-    <t>367,335,337,426,151,399,427,334,336,0,150,398,368</t>
-  </si>
-  <si>
-    <t>335,337,426,399,427,334,336,0,398</t>
-  </si>
-  <si>
-    <t>365,367,366,334,335,337,336,0,368</t>
-  </si>
-  <si>
-    <t>285,333,359,251,180,264,177,184,310,0,427,269,266,254,294,346,295,210,265,342,354,315,331,283,321,204,202,357,178,287,203,292,340,246,282,322,311,314,268,257,289,209,185,182,313,212,245,249,324,252,279,316,353,347,248,349,179,356,253,351,299,325,244,280,326,213,298,368,344,242,176,207,367,320,215,398,301,263,288,291,362,399,272,290,214,360,201,332,255,247,243,328,312,426,330,270,318,256,284,211,206,275,350,319,274,300,281,183,296,348,181,317,267,286,273,352,341,345,329,271,208,250,293,343,276,361,323,327,355</t>
-  </si>
-  <si>
-    <t>208,313,215,214,361,181,0,204,203,263,312,298,206,314,360,179,340,311,280,281,176,300,310,282,362,359,299,209,180,318,201,343,211,244,207,202,322,270,344,213,342,321,177,316,264,182,279,320,323,269,183,341,319,178,317,212,345,301,210,315,245</t>
-  </si>
-  <si>
-    <t>208,214,361,181,0,203,204,298,206,242,360,179,311,184,176,310,243,362,359,205,299,201,211,244,207,202,270,213,177,182,269,183,178,212,245</t>
-  </si>
-  <si>
-    <t>211,244,181,214,0,270,213,298,242,311,182,269,184,183,310,243,212,299,245</t>
-  </si>
-  <si>
-    <t>274,299,182,212,213,244,183,279,0,245,273,280,215,214,298</t>
+    <t>399,336,368,409,187,417,371,398,337,253,248,367,212,403,188,247,252,419,250,182,406,254,287,427,273,183,243,244,255,0,372,404,249,407,334,418,215,335,245,414,408,405,411,426,246,416,402,288,213,410,251,412,413,274,214,415,256</t>
+  </si>
+  <si>
+    <t>270,0,215,398,399,183,243,219,337,371,426,213,372,212,335,336,214,244,334,218,182,368,427,269,367</t>
+  </si>
+  <si>
+    <t>245,280,0,215,246,398,399,279,183,243,219,426,371,213,372,212,214,244,273,218,182,274,368,427,367</t>
+  </si>
+  <si>
+    <t>442,448,243,443,452,426,437,453,438,440,446,219,433,182,431,365,212,451,403,398,280,244,447,444,445,183,432,257,402,435,258,436,434,213,368,366,399,218,0,449,215,427,439,441,214,279,367,450,430</t>
+  </si>
+  <si>
+    <t>0,258,249,215,398,250,243,426,371,213,372,212,368,257,214,244,399,427,367</t>
+  </si>
+  <si>
+    <t>213,372,212,368,257,214,0,258,215,398,399,427,367,426,371</t>
+  </si>
+  <si>
+    <t>372,214,0,319,215,398,399,368,427,367,426,371,318</t>
+  </si>
+  <si>
+    <t>150,372,426,337,0,334,151,398,399,368,427,367,335,336,371</t>
+  </si>
+  <si>
+    <t>403,367,368,335,371,0,402,426,337,372,399,334,427,336,398</t>
+  </si>
+  <si>
+    <t>368,426,334,366,427,430,335,337,0,336,399,398,431,367,365</t>
+  </si>
+  <si>
+    <t>270,266,284,331,355,183,267,361,181,212,352,326,341,184,204,340,210,367,263,253,360,249,247,296,426,372,350,214,287,255,330,290,179,316,353,282,311,201,356,345,213,271,315,324,242,332,285,281,245,344,349,314,248,320,325,244,207,321,293,333,298,209,295,357,398,250,275,292,208,347,300,362,274,327,185,328,0,268,280,348,246,313,371,318,264,276,182,351,427,342,319,317,346,291,359,322,178,272,329,279,343,312,254,299,176,289,286,273,211,368,269,252,310,206,215,301,180,203,243,265,323,177,354,257,251,256,288,399,294,202,283</t>
+  </si>
+  <si>
+    <t>321,206,366,299,178,244,322,316,264,340,341,311,270,176,212,342,372,310,204,211,214,269,427,182,209,263,317,210,181,367,282,179,201,368,426,203,323,318,0,313,398,359,213,298,312,300,319,207,362,314,430,215,371,399,431,365,361,345,320,180,343,280,360,202,281,279,301,315,177,183,245,208,344</t>
+  </si>
+  <si>
+    <t>399,398,310,368,214,0,359,204,360,426,244,243,462,211,242,212,179,206,178,427,461,311,182,177,183,208,270,245,181,207,205,203,201,298,213,184,269,362,367,361,176,299,202</t>
+  </si>
+  <si>
+    <t>399,398,310,311,368,182,183,0,214,270,426,244,245,181,243,298,184,462,213,211,242,269,212,367,299,427,461</t>
+  </si>
+  <si>
+    <t>245,183,426,299,273,213,280,368,367,399,182,431,0,274,427,215,298,212,279,214,398,244,430</t>
   </si>
   <si>
     <t>151,150,218,219,0,243,244</t>
@@ -235,13 +235,16 @@
     <t>249,243,365,367,366,250,244,0,368</t>
   </si>
   <si>
+    <t>432,372,243,402,371,426,373,280,462,368,367,375,399,433,431,461,0,370,427,279,403,398,374,244,430</t>
+  </si>
+  <si>
     <t>243,279,244,0,280</t>
   </si>
   <si>
-    <t>367,182,426,399,427,0,181,398,368</t>
-  </si>
-  <si>
-    <t>0,182,181</t>
+    <t>399,402,181,368,182,398,427,367,403,0,426</t>
+  </si>
+  <si>
+    <t>426,182,399,427,398,0,181</t>
   </si>
   <si>
     <t>335,0,334</t>
@@ -253,19 +256,19 @@
     <t>0,273,274</t>
   </si>
   <si>
-    <t>246,0,243,319,244,245,318</t>
+    <t>398,367,319,365,368,246,399,243,0,244,245,366,318</t>
   </si>
   <si>
     <t>367,299,399,298,181,310,398,368,182,273,426,427,311,340,0,274,341</t>
   </si>
   <si>
-    <t>279,340,0,181,182,280,341</t>
-  </si>
-  <si>
-    <t>183,177,176,182,287,341,340,288,0</t>
-  </si>
-  <si>
-    <t>206,288,310,213,287,207,311,212,0</t>
+    <t>398,402,340,365,181,399,280,182,0,366,279,403,341</t>
+  </si>
+  <si>
+    <t>0,177,182,176,365,367,366,183,287,341,368,340,288</t>
+  </si>
+  <si>
+    <t>311,0,310,207,288,365,367,213,366,206,368,212,287</t>
   </si>
   <si>
     <t>310,213,211,176,183,201,181,0,269,177,311,203,212,204,214,182,202,270,184</t>
@@ -280,7 +283,7 @@
     <t>151,187,190,150,188,0,189</t>
   </si>
   <si>
-    <t>0,335,334,368,367</t>
+    <t>426,427,334,0,367,368,335</t>
   </si>
   <si>
     <t>273,0,274</t>
@@ -289,13 +292,16 @@
     <t>0,366,365,367,368</t>
   </si>
   <si>
+    <t>365,366,0,367,368</t>
+  </si>
+  <si>
     <t>176,182,213,184,177,186,181,299,185,212,244,183,279,0,245,280,298</t>
   </si>
   <si>
-    <t>281,282,280,275,246,243,273,278,0,258,274,183,245,182,368,367,244,257,277,279,276</t>
-  </si>
-  <si>
-    <t>0,310,311,257,258</t>
+    <t>277,368,182,257,0,183,246,318,403,275,244,280,245,276,273,243,279,462,278,402,319,274,282,367,258,281,461</t>
+  </si>
+  <si>
+    <t>424,368,311,425,366,430,310,0,258,257,431,367,365</t>
   </si>
   <si>
     <t>212,0,244,213,341,340,274,176,273,177,245</t>
@@ -304,28 +310,28 @@
     <t>311,244,310,207,243,0,273,206,274</t>
   </si>
   <si>
-    <t>B_O</t>
+    <t>B_DF2</t>
+  </si>
+  <si>
+    <t>B_DF1</t>
+  </si>
+  <si>
+    <t>A_XN2</t>
   </si>
   <si>
     <t>A_XB2</t>
   </si>
   <si>
+    <t>A_DF1</t>
+  </si>
+  <si>
     <t>B_DF3</t>
   </si>
   <si>
-    <t>A_XN2</t>
-  </si>
-  <si>
-    <t>A_DF1</t>
-  </si>
-  <si>
     <t>A_O</t>
   </si>
   <si>
     <t>B_XB2</t>
-  </si>
-  <si>
-    <t>B_DF2</t>
   </si>
   <si>
     <t>A_DF2</t>
@@ -720,10 +726,10 @@
         <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E2">
-        <v>9632</v>
+        <v>13450</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -737,10 +743,10 @@
         <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E3">
-        <v>6520</v>
+        <v>6720</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -754,10 +760,10 @@
         <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E4">
-        <v>5778</v>
+        <v>5978</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -771,10 +777,10 @@
         <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E5">
-        <v>4036</v>
+        <v>8510</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -788,10 +794,10 @@
         <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E6">
-        <v>3414</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -805,10 +811,10 @@
         <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E7">
-        <v>3112</v>
+        <v>3312</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -822,10 +828,10 @@
         <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E8">
-        <v>2630</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -839,10 +845,10 @@
         <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E9">
-        <v>3812</v>
+        <v>4012</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -856,10 +862,10 @@
         <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E10">
-        <v>2208</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -873,10 +879,10 @@
         <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E11">
-        <v>1396</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -890,10 +896,10 @@
         <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E12">
-        <v>26054</v>
+        <v>26254</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -907,10 +913,10 @@
         <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E13">
-        <v>12338</v>
+        <v>15246</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -924,10 +930,10 @@
         <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E14">
-        <v>6310</v>
+        <v>8816</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -941,10 +947,10 @@
         <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E15">
-        <v>3094</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -958,10 +964,10 @@
         <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E16">
-        <v>2810</v>
+        <v>5316</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -975,7 +981,7 @@
         <v>71</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E17">
         <v>854</v>
@@ -992,7 +998,7 @@
         <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E18">
         <v>894</v>
@@ -1009,10 +1015,10 @@
         <v>73</v>
       </c>
       <c r="D19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E19">
-        <v>352</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1023,10 +1029,10 @@
         <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E20">
         <v>352</v>
@@ -1040,13 +1046,13 @@
         <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E21">
-        <v>2306</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1057,13 +1063,13 @@
         <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D22" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E22">
-        <v>200</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1074,10 +1080,10 @@
         <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E23">
         <v>302</v>
@@ -1091,10 +1097,10 @@
         <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E24">
         <v>302</v>
@@ -1108,10 +1114,10 @@
         <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E25">
         <v>200</v>
@@ -1125,10 +1131,10 @@
         <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E26">
         <v>200</v>
@@ -1142,13 +1148,13 @@
         <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E27">
-        <v>1214</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1159,10 +1165,10 @@
         <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D28" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E28">
         <v>2508</v>
@@ -1176,13 +1182,13 @@
         <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D29" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E29">
-        <v>902</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1193,13 +1199,13 @@
         <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
         <v>103</v>
       </c>
       <c r="E30">
-        <v>1384</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1210,13 +1216,13 @@
         <v>54</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
         <v>103</v>
       </c>
       <c r="E31">
-        <v>1384</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1227,10 +1233,10 @@
         <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D32" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E32">
         <v>2912</v>
@@ -1244,10 +1250,10 @@
         <v>54</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D33" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E33">
         <v>904</v>
@@ -1261,10 +1267,10 @@
         <v>54</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D34" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E34">
         <v>904</v>
@@ -1278,10 +1284,10 @@
         <v>55</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E35">
         <v>1056</v>
@@ -1295,13 +1301,13 @@
         <v>55</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D36" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E36">
-        <v>1004</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1312,10 +1318,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D37" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E37">
         <v>302</v>
@@ -1329,10 +1335,10 @@
         <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D38" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E38">
         <v>302</v>
@@ -1346,10 +1352,10 @@
         <v>55</v>
       </c>
       <c r="C39" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D39" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E39">
         <v>302</v>
@@ -1363,10 +1369,10 @@
         <v>55</v>
       </c>
       <c r="C40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D40" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E40">
         <v>390</v>
@@ -1379,14 +1385,14 @@
       <c r="B41" t="s">
         <v>55</v>
       </c>
-      <c r="C41">
-        <v>0</v>
+      <c r="C41" t="s">
+        <v>92</v>
       </c>
       <c r="D41" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>390</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1400,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1417,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1434,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1448,10 +1454,10 @@
         <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D45" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E45">
         <v>2712</v>
@@ -1465,13 +1471,13 @@
         <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D46" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E46">
-        <v>3956</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1482,13 +1488,13 @@
         <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D47" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E47">
-        <v>450</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1499,10 +1505,10 @@
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D48" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E48">
         <v>1786</v>
@@ -1516,10 +1522,10 @@
         <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D49" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E49">
         <v>1434</v>

--- a/storage/car_0.xlsx
+++ b/storage/car_0.xlsx
@@ -184,49 +184,49 @@
     <t>C</t>
   </si>
   <si>
-    <t>399,336,368,409,187,417,371,398,337,253,248,367,212,403,188,247,252,419,250,182,406,254,287,427,273,183,243,244,255,0,372,404,249,407,334,418,215,335,245,414,408,405,411,426,246,416,402,288,213,410,251,412,413,274,214,415,256</t>
-  </si>
-  <si>
-    <t>270,0,215,398,399,183,243,219,337,371,426,213,372,212,335,336,214,244,334,218,182,368,427,269,367</t>
-  </si>
-  <si>
-    <t>245,280,0,215,246,398,399,279,183,243,219,426,371,213,372,212,214,244,273,218,182,274,368,427,367</t>
-  </si>
-  <si>
-    <t>442,448,243,443,452,426,437,453,438,440,446,219,433,182,431,365,212,451,403,398,280,244,447,444,445,183,432,257,402,435,258,436,434,213,368,366,399,218,0,449,215,427,439,441,214,279,367,450,430</t>
-  </si>
-  <si>
-    <t>0,258,249,215,398,250,243,426,371,213,372,212,368,257,214,244,399,427,367</t>
-  </si>
-  <si>
-    <t>213,372,212,368,257,214,0,258,215,398,399,427,367,426,371</t>
-  </si>
-  <si>
-    <t>372,214,0,319,215,398,399,368,427,367,426,371,318</t>
-  </si>
-  <si>
-    <t>150,372,426,337,0,334,151,398,399,368,427,367,335,336,371</t>
-  </si>
-  <si>
-    <t>403,367,368,335,371,0,402,426,337,372,399,334,427,336,398</t>
-  </si>
-  <si>
-    <t>368,426,334,366,427,430,335,337,0,336,399,398,431,367,365</t>
-  </si>
-  <si>
-    <t>270,266,284,331,355,183,267,361,181,212,352,326,341,184,204,340,210,367,263,253,360,249,247,296,426,372,350,214,287,255,330,290,179,316,353,282,311,201,356,345,213,271,315,324,242,332,285,281,245,344,349,314,248,320,325,244,207,321,293,333,298,209,295,357,398,250,275,292,208,347,300,362,274,327,185,328,0,268,280,348,246,313,371,318,264,276,182,351,427,342,319,317,346,291,359,322,178,272,329,279,343,312,254,299,176,289,286,273,211,368,269,252,310,206,215,301,180,203,243,265,323,177,354,257,251,256,288,399,294,202,283</t>
-  </si>
-  <si>
-    <t>321,206,366,299,178,244,322,316,264,340,341,311,270,176,212,342,372,310,204,211,214,269,427,182,209,263,317,210,181,367,282,179,201,368,426,203,323,318,0,313,398,359,213,298,312,300,319,207,362,314,430,215,371,399,431,365,361,345,320,180,343,280,360,202,281,279,301,315,177,183,245,208,344</t>
-  </si>
-  <si>
-    <t>399,398,310,368,214,0,359,204,360,426,244,243,462,211,242,212,179,206,178,427,461,311,182,177,183,208,270,245,181,207,205,203,201,298,213,184,269,362,367,361,176,299,202</t>
-  </si>
-  <si>
-    <t>399,398,310,311,368,182,183,0,214,270,426,244,245,181,243,298,184,462,213,211,242,269,212,367,299,427,461</t>
-  </si>
-  <si>
-    <t>245,183,426,299,273,213,280,368,367,399,182,431,0,274,427,215,298,212,279,214,398,244,430</t>
+    <t>365,366,487,253,367,419,458,214,399,255,337,415,273,402,213,252,409,418,427,407,368,183,404,335,256,336,254,250,414,288,182,215,412,398,372,426,406,188,411,245,413,248,417,212,403,251,287,334,247,416,408,246,187,274,405,371,249,488,519,410,0,243,518,244,457</t>
+  </si>
+  <si>
+    <t>182,218,215,487,398,269,427,367,371,372,426,488,519,219,368,183,458,212,214,399,0,335,337,243,213,270,334,518,336,244,457</t>
+  </si>
+  <si>
+    <t>182,218,215,246,487,280,398,274,427,367,371,372,426,245,488,519,219,368,183,458,212,214,399,0,279,243,273,213,518,244,457</t>
+  </si>
+  <si>
+    <t>443,442,182,218,215,434,365,258,487,366,398,430,367,431,432,426,219,458,448,212,403,214,436,399,452,449,279,213,402,437,450,435,441,257,451,453,280,427,433,446,488,445,368,519,440,183,438,439,0,444,243,518,244,447,457</t>
+  </si>
+  <si>
+    <t>215,257,258,487,398,427,371,367,372,426,249,488,519,368,458,212,214,399,0,243,518,213,244,250,457</t>
+  </si>
+  <si>
+    <t>215,257,258,487,398,427,371,367,372,426,488,519,368,458,212,214,399,0,518,213,457</t>
+  </si>
+  <si>
+    <t>319,215,487,398,427,371,367,372,426,488,519,368,318,458,214,399,0,518,457</t>
+  </si>
+  <si>
+    <t>487,398,427,371,367,372,426,488,519,150,368,458,151,399,0,335,337,518,336,334,457</t>
+  </si>
+  <si>
+    <t>487,398,427,371,367,372,426,488,519,368,458,403,399,0,335,337,518,336,402,334,457</t>
+  </si>
+  <si>
+    <t>365,366,487,398,427,430,367,431,426,488,519,368,458,399,0,335,337,518,336,334,457</t>
+  </si>
+  <si>
+    <t>268,360,487,253,326,367,292,267,180,286,328,214,255,352,252,257,298,280,427,208,311,368,318,264,284,310,348,256,315,288,319,295,215,265,178,330,317,346,332,372,331,266,344,322,333,320,210,201,274,207,296,343,249,488,519,321,316,329,242,263,244,204,342,457,209,276,314,176,353,361,177,351,327,312,184,202,347,349,458,399,282,301,279,213,273,270,345,325,362,291,359,179,290,183,281,283,357,181,356,341,254,250,271,182,289,340,398,269,211,324,426,245,248,212,285,251,355,287,294,206,247,293,350,203,300,323,246,371,185,354,299,313,0,243,518,275,272</t>
+  </si>
+  <si>
+    <t>209,314,176,365,361,360,487,366,177,430,367,312,431,180,202,458,214,399,282,301,279,213,270,345,362,298,359,280,427,208,311,179,368,318,183,281,264,310,181,341,315,319,215,182,317,178,340,398,269,211,372,426,245,212,344,322,206,320,210,203,300,201,323,207,371,343,299,313,488,519,321,316,0,263,244,518,204,342,457</t>
+  </si>
+  <si>
+    <t>182,176,178,361,360,487,177,269,398,367,184,211,426,245,202,458,212,214,399,213,270,206,203,362,462,201,298,359,207,427,208,299,179,311,488,368,519,205,183,461,181,0,242,310,243,518,244,204,457</t>
+  </si>
+  <si>
+    <t>182,487,398,269,367,184,211,426,245,458,212,214,399,213,270,462,298,427,299,311,488,368,519,183,461,181,0,242,310,243,518,244,457</t>
+  </si>
+  <si>
+    <t>182,215,298,487,280,398,274,430,367,427,431,426,299,245,488,368,519,183,458,212,214,399,0,279,518,273,213,244,457</t>
   </si>
   <si>
     <t>151,150,218,219,0,243,244</t>
@@ -235,16 +235,16 @@
     <t>249,243,365,367,366,250,244,0,368</t>
   </si>
   <si>
-    <t>432,372,243,402,371,426,373,280,462,368,367,375,399,433,431,461,0,370,427,279,403,398,374,244,430</t>
+    <t>427,373,367,372,374,403,375,243,368,461,402,398,430,280,431,462,0,370,399,279,244,432,433,366,371,426,365</t>
   </si>
   <si>
     <t>243,279,244,0,280</t>
   </si>
   <si>
-    <t>399,402,181,368,182,398,427,367,403,0,426</t>
-  </si>
-  <si>
-    <t>426,182,399,427,398,0,181</t>
+    <t>399,427,396,402,0,397,426,182,403,368,398,367,181</t>
+  </si>
+  <si>
+    <t>426,427,182,0,365,366,398,399,181</t>
   </si>
   <si>
     <t>335,0,334</t>
@@ -283,7 +283,7 @@
     <t>151,187,190,150,188,0,189</t>
   </si>
   <si>
-    <t>426,427,334,0,367,368,335</t>
+    <t>426,427,334,365,335,367,366,368,0</t>
   </si>
   <si>
     <t>273,0,274</t>
@@ -295,43 +295,43 @@
     <t>365,366,0,367,368</t>
   </si>
   <si>
-    <t>176,182,213,184,177,186,181,299,185,212,244,183,279,0,245,280,298</t>
-  </si>
-  <si>
-    <t>277,368,182,257,0,183,246,318,403,275,244,280,245,276,273,243,279,462,278,402,319,274,282,367,258,281,461</t>
-  </si>
-  <si>
-    <t>424,368,311,425,366,430,310,0,258,257,431,367,365</t>
-  </si>
-  <si>
-    <t>212,0,244,213,341,340,274,176,273,177,245</t>
-  </si>
-  <si>
-    <t>311,244,310,207,243,0,273,206,274</t>
+    <t>185,299,182,280,365,176,0,184,298,183,181,212,186,366,177,279,244,213,245</t>
+  </si>
+  <si>
+    <t>183,278,257,246,274,367,245,182,403,277,281,243,368,276,282,461,402,430,280,431,462,275,0,244,273,279,319,366,258,318,365</t>
+  </si>
+  <si>
+    <t>366,365,396,311,310,425,0,397,424,258,431,368,257,367,430</t>
+  </si>
+  <si>
+    <t>365,244,340,213,212,0,177,274,273,245,176,366,341</t>
+  </si>
+  <si>
+    <t>207,310,274,311,206,365,366,243,273,0,244</t>
+  </si>
+  <si>
+    <t>B_O</t>
+  </si>
+  <si>
+    <t>B_XB2</t>
+  </si>
+  <si>
+    <t>A_XN2</t>
+  </si>
+  <si>
+    <t>A_XB2</t>
+  </si>
+  <si>
+    <t>A_DF1</t>
+  </si>
+  <si>
+    <t>A_O</t>
+  </si>
+  <si>
+    <t>B_DF3</t>
   </si>
   <si>
     <t>B_DF2</t>
-  </si>
-  <si>
-    <t>B_DF1</t>
-  </si>
-  <si>
-    <t>A_XN2</t>
-  </si>
-  <si>
-    <t>A_XB2</t>
-  </si>
-  <si>
-    <t>A_DF1</t>
-  </si>
-  <si>
-    <t>B_DF3</t>
-  </si>
-  <si>
-    <t>A_O</t>
-  </si>
-  <si>
-    <t>B_XB2</t>
   </si>
   <si>
     <t>A_DF2</t>
@@ -729,7 +729,7 @@
         <v>98</v>
       </c>
       <c r="E2">
-        <v>13450</v>
+        <v>15858</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -746,7 +746,7 @@
         <v>98</v>
       </c>
       <c r="E3">
-        <v>6720</v>
+        <v>9026</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -760,10 +760,10 @@
         <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E4">
-        <v>5978</v>
+        <v>7134</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -777,10 +777,10 @@
         <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5">
-        <v>8510</v>
+        <v>10766</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -794,10 +794,10 @@
         <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E6">
-        <v>3614</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -811,10 +811,10 @@
         <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E7">
-        <v>3312</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -828,10 +828,10 @@
         <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E8">
-        <v>2830</v>
+        <v>3986</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -845,10 +845,10 @@
         <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E9">
-        <v>4012</v>
+        <v>5168</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -862,10 +862,10 @@
         <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E10">
-        <v>3460</v>
+        <v>5716</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -879,10 +879,10 @@
         <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E11">
-        <v>3140</v>
+        <v>5396</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -896,10 +896,10 @@
         <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E12">
-        <v>26254</v>
+        <v>27410</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -913,10 +913,10 @@
         <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E13">
-        <v>15246</v>
+        <v>17502</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -930,10 +930,10 @@
         <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E14">
-        <v>8816</v>
+        <v>11072</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -947,10 +947,10 @@
         <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E15">
-        <v>5600</v>
+        <v>7856</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -964,10 +964,10 @@
         <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E16">
-        <v>5316</v>
+        <v>7572</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1015,10 +1015,10 @@
         <v>73</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E19">
-        <v>4370</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1052,7 +1052,7 @@
         <v>98</v>
       </c>
       <c r="E21">
-        <v>2506</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1066,10 +1066,10 @@
         <v>76</v>
       </c>
       <c r="D22" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E22">
-        <v>1152</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1083,7 +1083,7 @@
         <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E23">
         <v>302</v>
@@ -1100,7 +1100,7 @@
         <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E24">
         <v>302</v>
@@ -1117,7 +1117,7 @@
         <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E25">
         <v>200</v>
@@ -1134,7 +1134,7 @@
         <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E26">
         <v>200</v>
@@ -1151,7 +1151,7 @@
         <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E27">
         <v>2164</v>
@@ -1168,7 +1168,7 @@
         <v>81</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E28">
         <v>2508</v>
@@ -1185,7 +1185,7 @@
         <v>82</v>
       </c>
       <c r="D29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E29">
         <v>1804</v>
@@ -1202,7 +1202,7 @@
         <v>83</v>
       </c>
       <c r="D30" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E30">
         <v>1936</v>
@@ -1219,7 +1219,7 @@
         <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E31">
         <v>1834</v>
@@ -1236,7 +1236,7 @@
         <v>85</v>
       </c>
       <c r="D32" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E32">
         <v>2912</v>
@@ -1253,7 +1253,7 @@
         <v>86</v>
       </c>
       <c r="D33" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E33">
         <v>904</v>
@@ -1270,7 +1270,7 @@
         <v>87</v>
       </c>
       <c r="D34" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E34">
         <v>904</v>
@@ -1304,10 +1304,10 @@
         <v>89</v>
       </c>
       <c r="D36" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E36">
-        <v>1254</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1321,7 +1321,7 @@
         <v>78</v>
       </c>
       <c r="D37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E37">
         <v>302</v>
@@ -1338,7 +1338,7 @@
         <v>90</v>
       </c>
       <c r="D38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E38">
         <v>302</v>
@@ -1355,7 +1355,7 @@
         <v>90</v>
       </c>
       <c r="D39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E39">
         <v>302</v>
@@ -1457,10 +1457,10 @@
         <v>93</v>
       </c>
       <c r="D45" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E45">
-        <v>2712</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1474,10 +1474,10 @@
         <v>94</v>
       </c>
       <c r="D46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E46">
-        <v>4700</v>
+        <v>5152</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1491,10 +1491,10 @@
         <v>95</v>
       </c>
       <c r="D47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E47">
-        <v>1500</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1511,7 +1511,7 @@
         <v>98</v>
       </c>
       <c r="E48">
-        <v>1786</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1525,10 +1525,10 @@
         <v>97</v>
       </c>
       <c r="D49" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E49">
-        <v>1434</v>
+        <v>1684</v>
       </c>
     </row>
   </sheetData>

--- a/storage/car_0.xlsx
+++ b/storage/car_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="108">
   <si>
     <t>type</t>
   </si>
@@ -184,49 +184,49 @@
     <t>C</t>
   </si>
   <si>
-    <t>365,366,487,253,367,419,458,214,399,255,337,415,273,402,213,252,409,418,427,407,368,183,404,335,256,336,254,250,414,288,182,215,412,398,372,426,406,188,411,245,413,248,417,212,403,251,287,334,247,416,408,246,187,274,405,371,249,488,519,410,0,243,518,244,457</t>
-  </si>
-  <si>
-    <t>182,218,215,487,398,269,427,367,371,372,426,488,519,219,368,183,458,212,214,399,0,335,337,243,213,270,334,518,336,244,457</t>
-  </si>
-  <si>
-    <t>182,218,215,246,487,280,398,274,427,367,371,372,426,245,488,519,219,368,183,458,212,214,399,0,279,243,273,213,518,244,457</t>
-  </si>
-  <si>
-    <t>443,442,182,218,215,434,365,258,487,366,398,430,367,431,432,426,219,458,448,212,403,214,436,399,452,449,279,213,402,437,450,435,441,257,451,453,280,427,433,446,488,445,368,519,440,183,438,439,0,444,243,518,244,447,457</t>
-  </si>
-  <si>
-    <t>215,257,258,487,398,427,371,367,372,426,249,488,519,368,458,212,214,399,0,243,518,213,244,250,457</t>
-  </si>
-  <si>
-    <t>215,257,258,487,398,427,371,367,372,426,488,519,368,458,212,214,399,0,518,213,457</t>
-  </si>
-  <si>
-    <t>319,215,487,398,427,371,367,372,426,488,519,368,318,458,214,399,0,518,457</t>
-  </si>
-  <si>
-    <t>487,398,427,371,367,372,426,488,519,150,368,458,151,399,0,335,337,518,336,334,457</t>
-  </si>
-  <si>
-    <t>487,398,427,371,367,372,426,488,519,368,458,403,399,0,335,337,518,336,402,334,457</t>
-  </si>
-  <si>
-    <t>365,366,487,398,427,430,367,431,426,488,519,368,458,399,0,335,337,518,336,334,457</t>
-  </si>
-  <si>
-    <t>268,360,487,253,326,367,292,267,180,286,328,214,255,352,252,257,298,280,427,208,311,368,318,264,284,310,348,256,315,288,319,295,215,265,178,330,317,346,332,372,331,266,344,322,333,320,210,201,274,207,296,343,249,488,519,321,316,329,242,263,244,204,342,457,209,276,314,176,353,361,177,351,327,312,184,202,347,349,458,399,282,301,279,213,273,270,345,325,362,291,359,179,290,183,281,283,357,181,356,341,254,250,271,182,289,340,398,269,211,324,426,245,248,212,285,251,355,287,294,206,247,293,350,203,300,323,246,371,185,354,299,313,0,243,518,275,272</t>
-  </si>
-  <si>
-    <t>209,314,176,365,361,360,487,366,177,430,367,312,431,180,202,458,214,399,282,301,279,213,270,345,362,298,359,280,427,208,311,179,368,318,183,281,264,310,181,341,315,319,215,182,317,178,340,398,269,211,372,426,245,212,344,322,206,320,210,203,300,201,323,207,371,343,299,313,488,519,321,316,0,263,244,518,204,342,457</t>
-  </si>
-  <si>
-    <t>182,176,178,361,360,487,177,269,398,367,184,211,426,245,202,458,212,214,399,213,270,206,203,362,462,201,298,359,207,427,208,299,179,311,488,368,519,205,183,461,181,0,242,310,243,518,244,204,457</t>
-  </si>
-  <si>
-    <t>182,487,398,269,367,184,211,426,245,458,212,214,399,213,270,462,298,427,299,311,488,368,519,183,461,181,0,242,310,243,518,244,457</t>
-  </si>
-  <si>
-    <t>182,215,298,487,280,398,274,430,367,427,431,426,299,245,488,368,519,183,458,212,214,399,0,279,518,273,213,244,457</t>
+    <t>522,494,250,245,246,503,0,370,524,251,254,413,287,399,531,367,213,411,288,498,510,529,398,491,256,273,253,372,458,334,336,457,462,513,410,416,412,406,500,523,407,496,488,509,508,507,368,404,214,525,547,495,499,369,518,493,461,530,487,535,403,255,511,371,506,532,517,402,516,187,418,497,463,274,527,182,492,464,366,502,505,546,414,244,212,417,252,337,188,419,409,215,514,183,504,528,365,415,427,405,335,512,533,248,526,243,519,501,249,408,534,247,426</t>
+  </si>
+  <si>
+    <t>450,494,503,0,447,219,399,367,213,498,398,372,446,458,334,336,457,445,462,444,443,500,441,496,488,368,440,214,495,547,518,499,461,487,269,439,371,497,218,463,449,452,182,464,502,505,546,244,212,438,337,448,215,183,504,427,453,335,243,519,270,501,451,442,426</t>
+  </si>
+  <si>
+    <t>464,182,218,518,244,367,463,372,457,219,547,495,246,546,214,371,488,399,0,183,212,461,462,215,368,273,439,438,458,279,280,243,494,245,213,398,519,426,487,427,274</t>
+  </si>
+  <si>
+    <t>464,182,403,441,218,518,453,244,367,463,457,257,443,445,219,547,495,451,546,214,434,488,399,0,436,212,183,444,461,258,462,448,215,368,430,438,458,452,402,440,432,433,431,279,447,243,280,427,494,442,213,366,365,398,519,450,437,446,426,439,435,449,487</t>
+  </si>
+  <si>
+    <t>463,213,458,461,371,368,399,439,372,249,487,530,215,0,519,520,494,522,464,258,426,367,521,427,438,523,518,398,212,488,495,214,462,457,250,257,243,244,531</t>
+  </si>
+  <si>
+    <t>0,520,522,519,526,398,439,457,530,368,367,531,487,464,462,461,214,399,488,525,427,438,523,518,258,458,371,257,521,215,213,372,212,426,463</t>
+  </si>
+  <si>
+    <t>525,488,215,371,439,398,558,492,426,461,519,458,462,491,457,372,557,427,438,518,399,368,526,214,319,318,367,487,0</t>
+  </si>
+  <si>
+    <t>525,334,335,488,371,439,398,558,150,492,426,461,519,151,458,462,491,372,557,457,427,336,438,518,368,399,526,337,367,487,0</t>
+  </si>
+  <si>
+    <t>403,525,334,335,488,371,398,558,402,492,426,461,519,458,462,491,457,372,557,427,336,518,399,368,526,337,367,487,0</t>
+  </si>
+  <si>
+    <t>365,337,494,518,430,487,335,367,368,488,0,492,336,399,458,457,525,491,398,519,426,334,366,577,493,578,427,431,526</t>
+  </si>
+  <si>
+    <t>605,494,282,311,293,556,348,0,280,315,321,284,330,245,353,180,276,201,248,488,279,209,439,211,290,326,263,398,319,360,300,257,356,184,329,324,213,206,316,367,271,313,269,183,332,249,343,600,283,606,355,310,291,359,208,599,286,342,203,603,426,244,317,602,350,325,242,289,215,281,296,185,371,632,254,487,555,427,362,361,518,341,492,287,214,519,357,351,345,251,250,179,301,294,352,181,288,662,354,247,272,285,327,399,663,210,178,635,318,265,320,458,493,204,212,634,333,633,253,298,438,368,176,275,252,344,314,246,256,661,299,328,660,264,207,630,266,331,274,349,604,255,601,457,346,267,491,322,323,243,340,295,268,273,631,182,292,347,202,177,270,312,372</t>
+  </si>
+  <si>
+    <t>181,555,519,299,320,202,212,206,178,359,518,180,430,179,606,269,457,603,317,244,312,431,345,316,321,214,182,399,203,600,245,360,342,282,458,314,362,361,340,372,204,398,522,201,319,208,280,322,523,426,281,313,213,632,177,556,209,599,0,602,315,341,310,210,488,215,366,264,604,487,365,211,343,207,183,427,176,344,311,631,263,301,368,270,300,279,367,630,318,298,605,601,323,492,491,633,371</t>
+  </si>
+  <si>
+    <t>181,519,205,213,299,242,177,202,206,212,599,178,359,0,518,602,243,310,179,606,269,457,603,488,604,244,487,211,176,214,207,399,203,427,182,183,311,600,360,245,368,458,270,362,361,367,204,184,398,522,298,605,601,201,492,495,462,494,461,208,491,523,426</t>
+  </si>
+  <si>
+    <t>181,242,519,213,299,212,599,0,518,602,464,243,310,606,269,457,603,488,463,604,244,487,211,214,399,182,427,183,311,600,245,368,458,270,367,184,398,298,605,601,495,462,494,461,426</t>
+  </si>
+  <si>
+    <t>519,273,299,213,212,599,274,0,518,602,430,457,488,215,244,487,431,214,399,182,427,183,600,245,368,458,279,367,398,298,601,495,462,494,461,280,426</t>
   </si>
   <si>
     <t>151,150,218,219,0,243,244</t>
@@ -235,55 +235,58 @@
     <t>249,243,365,367,366,250,244,0,368</t>
   </si>
   <si>
-    <t>427,373,367,372,374,403,375,243,368,461,402,398,430,280,431,462,0,370,399,279,244,432,433,366,371,426,365</t>
+    <t>0,402,370,403,374,398,279,439,535,368,530,426,367,431,531,372,375,464,534,533,432,462,547,532,461,243,280,399,427,438,373,366,430,244,365,371,433,546,463</t>
   </si>
   <si>
     <t>243,279,244,0,280</t>
   </si>
   <si>
-    <t>399,427,396,402,0,397,426,182,403,368,398,367,181</t>
-  </si>
-  <si>
-    <t>426,427,182,0,365,366,398,399,181</t>
-  </si>
-  <si>
-    <t>335,0,334</t>
-  </si>
-  <si>
-    <t>0,334,335</t>
+    <t>182,368,181,403,397,402,367,547,546,492,396,398,399,0,426,491,427</t>
+  </si>
+  <si>
+    <t>182,546,181,365,366,398,522,399,523,0,426,427,547</t>
+  </si>
+  <si>
+    <t>487,519,335,488,0,334,518</t>
+  </si>
+  <si>
+    <t>519,335,0,334,518</t>
   </si>
   <si>
     <t>0,273,274</t>
   </si>
   <si>
-    <t>398,367,319,365,368,246,399,243,0,244,245,366,318</t>
-  </si>
-  <si>
-    <t>367,299,399,298,181,310,398,368,182,273,426,427,311,340,0,274,341</t>
-  </si>
-  <si>
-    <t>398,402,340,365,181,399,280,182,0,366,279,403,341</t>
-  </si>
-  <si>
-    <t>0,177,182,176,365,367,366,183,287,341,368,340,288</t>
-  </si>
-  <si>
-    <t>311,0,310,207,288,365,367,213,366,206,368,212,287</t>
-  </si>
-  <si>
-    <t>310,213,211,176,183,201,181,0,269,177,311,203,212,204,214,182,202,270,184</t>
-  </si>
-  <si>
-    <t>279,213,0,212,280,270,269</t>
-  </si>
-  <si>
-    <t>0,310,182,311,244,181,243</t>
+    <t>600,245,569,368,599,0,367,243,398,318,399,488,568,319,366,244,487,365,481,246,480</t>
+  </si>
+  <si>
+    <t>182,310,273,311,427,0,299,426,298,368,181,340,399,569,398,438,519,518,367,568,274,439,341</t>
+  </si>
+  <si>
+    <t>279,341,552,465,182,0,403,399,402,551,516,398,181,517,280,464,365,366,340</t>
+  </si>
+  <si>
+    <t>341,552,465,182,0,177,288,176,287,551,183,367,464,365,366,340,368</t>
+  </si>
+  <si>
+    <t>365,288,558,207,287,311,366,557,206,368,555,212,556,367,310,213,0</t>
+  </si>
+  <si>
+    <t>420,203,311,176,0,518,269,421,183,661,214,519,660,310,182,202,212,204,184,177,213,270,201,181,211</t>
+  </si>
+  <si>
+    <t>213,212,269,279,485,280,0,486,270</t>
+  </si>
+  <si>
+    <t>495,311,0,310,182,517,244,181,494,516,243</t>
   </si>
   <si>
     <t>151,187,190,150,188,0,189</t>
   </si>
   <si>
-    <t>426,427,334,365,335,367,366,368,0</t>
+    <t>371,492,334,366,368,365,0,370,335,427,367,462,372,486,491,481,369,480,485,426,461,556,555</t>
+  </si>
+  <si>
+    <t>0,487,488,335,334</t>
   </si>
   <si>
     <t>273,0,274</t>
@@ -295,25 +298,25 @@
     <t>365,366,0,367,368</t>
   </si>
   <si>
-    <t>185,299,182,280,365,176,0,184,298,183,181,212,186,366,177,279,244,213,245</t>
-  </si>
-  <si>
-    <t>183,278,257,246,274,367,245,182,403,277,281,243,368,276,282,461,402,430,280,431,462,275,0,244,273,279,319,366,258,318,365</t>
-  </si>
-  <si>
-    <t>366,365,396,311,310,425,0,397,424,258,431,368,257,367,430</t>
-  </si>
-  <si>
-    <t>365,244,340,213,212,0,177,274,273,245,176,366,341</t>
-  </si>
-  <si>
-    <t>207,310,274,311,206,365,366,243,273,0,244</t>
+    <t>298,366,244,176,0,183,492,186,491,661,365,299,660,280,182,245,212,177,184,213,185,488,181,279,487</t>
+  </si>
+  <si>
+    <t>243,402,280,430,282,277,275,365,258,257,368,318,319,245,246,367,431,278,244,366,274,462,276,523,182,273,0,281,403,279,522,183,461</t>
+  </si>
+  <si>
+    <t>495,366,311,310,424,431,397,0,367,368,462,430,461,425,365,396,257,258,494</t>
+  </si>
+  <si>
+    <t>0,461,519,273,366,177,274,212,516,245,518,244,365,530,531,341,213,340,517,176,462</t>
+  </si>
+  <si>
+    <t>365,273,519,492,491,244,0,274,206,366,310,311,207,517,518,243,516</t>
   </si>
   <si>
     <t>B_O</t>
   </si>
   <si>
-    <t>B_XB2</t>
+    <t>B_DF1</t>
   </si>
   <si>
     <t>A_XN2</t>
@@ -328,13 +331,13 @@
     <t>A_O</t>
   </si>
   <si>
-    <t>B_DF3</t>
+    <t>A_DF2</t>
   </si>
   <si>
     <t>B_DF2</t>
   </si>
   <si>
-    <t>A_DF2</t>
+    <t>B_XB3</t>
   </si>
 </sst>
 </file>
@@ -726,10 +729,10 @@
         <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E2">
-        <v>15858</v>
+        <v>25404</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -743,10 +746,10 @@
         <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E3">
-        <v>9026</v>
+        <v>14896</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -763,7 +766,7 @@
         <v>99</v>
       </c>
       <c r="E4">
-        <v>7134</v>
+        <v>8530</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -777,10 +780,10 @@
         <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E5">
-        <v>10766</v>
+        <v>11870</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -797,7 +800,7 @@
         <v>99</v>
       </c>
       <c r="E6">
-        <v>4770</v>
+        <v>6646</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -814,7 +817,7 @@
         <v>99</v>
       </c>
       <c r="E7">
-        <v>4468</v>
+        <v>6344</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -831,7 +834,7 @@
         <v>99</v>
       </c>
       <c r="E8">
-        <v>3986</v>
+        <v>5180</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -848,7 +851,7 @@
         <v>99</v>
       </c>
       <c r="E9">
-        <v>5168</v>
+        <v>6362</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -862,10 +865,10 @@
         <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E10">
-        <v>5716</v>
+        <v>6618</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -879,10 +882,10 @@
         <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E11">
-        <v>5396</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -896,10 +899,10 @@
         <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E12">
-        <v>27410</v>
+        <v>29372</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -913,10 +916,10 @@
         <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E13">
-        <v>17502</v>
+        <v>18866</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -930,10 +933,10 @@
         <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E14">
-        <v>11072</v>
+        <v>12232</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -947,10 +950,10 @@
         <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E15">
-        <v>7856</v>
+        <v>8614</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -964,10 +967,10 @@
         <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E16">
-        <v>7572</v>
+        <v>8126</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -981,7 +984,7 @@
         <v>71</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E17">
         <v>854</v>
@@ -998,7 +1001,7 @@
         <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E18">
         <v>894</v>
@@ -1015,10 +1018,10 @@
         <v>73</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E19">
-        <v>4520</v>
+        <v>6848</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1032,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E20">
         <v>352</v>
@@ -1049,10 +1052,10 @@
         <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E21">
-        <v>2708</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1066,10 +1069,10 @@
         <v>76</v>
       </c>
       <c r="D22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E22">
-        <v>1402</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1083,10 +1086,10 @@
         <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E23">
-        <v>302</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1100,10 +1103,10 @@
         <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E24">
-        <v>302</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1117,7 +1120,7 @@
         <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E25">
         <v>200</v>
@@ -1134,7 +1137,7 @@
         <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E26">
         <v>200</v>
@@ -1151,10 +1154,10 @@
         <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E27">
-        <v>2164</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1168,10 +1171,10 @@
         <v>81</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E28">
-        <v>2508</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1185,10 +1188,10 @@
         <v>82</v>
       </c>
       <c r="D29" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E29">
-        <v>1804</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1202,10 +1205,10 @@
         <v>83</v>
       </c>
       <c r="D30" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E30">
-        <v>1936</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1219,10 +1222,10 @@
         <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E31">
-        <v>1834</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1236,10 +1239,10 @@
         <v>85</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E32">
-        <v>2912</v>
+        <v>3364</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1253,10 +1256,10 @@
         <v>86</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E33">
-        <v>904</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1270,10 +1273,10 @@
         <v>87</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E34">
-        <v>904</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1287,7 +1290,7 @@
         <v>88</v>
       </c>
       <c r="D35" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E35">
         <v>1056</v>
@@ -1304,10 +1307,10 @@
         <v>89</v>
       </c>
       <c r="D36" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E36">
-        <v>1504</v>
+        <v>3864</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1318,13 +1321,13 @@
         <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D37" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E37">
-        <v>302</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1335,10 +1338,10 @@
         <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D38" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E38">
         <v>302</v>
@@ -1352,10 +1355,10 @@
         <v>55</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D39" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E39">
         <v>302</v>
@@ -1369,10 +1372,10 @@
         <v>55</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D40" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E40">
         <v>390</v>
@@ -1386,10 +1389,10 @@
         <v>55</v>
       </c>
       <c r="C41" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D41" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E41">
         <v>390</v>
@@ -1406,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1423,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1440,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1454,13 +1457,13 @@
         <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D45" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E45">
-        <v>2962</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1471,13 +1474,13 @@
         <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D46" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E46">
-        <v>5152</v>
+        <v>5352</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1488,13 +1491,13 @@
         <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D47" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E47">
-        <v>1650</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1505,13 +1508,13 @@
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D48" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E48">
-        <v>2088</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1522,13 +1525,13 @@
         <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D49" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E49">
-        <v>1684</v>
+        <v>2424</v>
       </c>
     </row>
   </sheetData>

--- a/storage/car_0.xlsx
+++ b/storage/car_0.xlsx
@@ -184,49 +184,49 @@
     <t>C</t>
   </si>
   <si>
-    <t>522,494,250,245,246,503,0,370,524,251,254,413,287,399,531,367,213,411,288,498,510,529,398,491,256,273,253,372,458,334,336,457,462,513,410,416,412,406,500,523,407,496,488,509,508,507,368,404,214,525,547,495,499,369,518,493,461,530,487,535,403,255,511,371,506,532,517,402,516,187,418,497,463,274,527,182,492,464,366,502,505,546,414,244,212,417,252,337,188,419,409,215,514,183,504,528,365,415,427,405,335,512,533,248,526,243,519,501,249,408,534,247,426</t>
-  </si>
-  <si>
-    <t>450,494,503,0,447,219,399,367,213,498,398,372,446,458,334,336,457,445,462,444,443,500,441,496,488,368,440,214,495,547,518,499,461,487,269,439,371,497,218,463,449,452,182,464,502,505,546,244,212,438,337,448,215,183,504,427,453,335,243,519,270,501,451,442,426</t>
-  </si>
-  <si>
-    <t>464,182,218,518,244,367,463,372,457,219,547,495,246,546,214,371,488,399,0,183,212,461,462,215,368,273,439,438,458,279,280,243,494,245,213,398,519,426,487,427,274</t>
-  </si>
-  <si>
-    <t>464,182,403,441,218,518,453,244,367,463,457,257,443,445,219,547,495,451,546,214,434,488,399,0,436,212,183,444,461,258,462,448,215,368,430,438,458,452,402,440,432,433,431,279,447,243,280,427,494,442,213,366,365,398,519,450,437,446,426,439,435,449,487</t>
-  </si>
-  <si>
-    <t>463,213,458,461,371,368,399,439,372,249,487,530,215,0,519,520,494,522,464,258,426,367,521,427,438,523,518,398,212,488,495,214,462,457,250,257,243,244,531</t>
-  </si>
-  <si>
-    <t>0,520,522,519,526,398,439,457,530,368,367,531,487,464,462,461,214,399,488,525,427,438,523,518,258,458,371,257,521,215,213,372,212,426,463</t>
-  </si>
-  <si>
-    <t>525,488,215,371,439,398,558,492,426,461,519,458,462,491,457,372,557,427,438,518,399,368,526,214,319,318,367,487,0</t>
-  </si>
-  <si>
-    <t>525,334,335,488,371,439,398,558,150,492,426,461,519,151,458,462,491,372,557,457,427,336,438,518,368,399,526,337,367,487,0</t>
-  </si>
-  <si>
-    <t>403,525,334,335,488,371,398,558,402,492,426,461,519,458,462,491,457,372,557,427,336,518,399,368,526,337,367,487,0</t>
-  </si>
-  <si>
-    <t>365,337,494,518,430,487,335,367,368,488,0,492,336,399,458,457,525,491,398,519,426,334,366,577,493,578,427,431,526</t>
-  </si>
-  <si>
-    <t>605,494,282,311,293,556,348,0,280,315,321,284,330,245,353,180,276,201,248,488,279,209,439,211,290,326,263,398,319,360,300,257,356,184,329,324,213,206,316,367,271,313,269,183,332,249,343,600,283,606,355,310,291,359,208,599,286,342,203,603,426,244,317,602,350,325,242,289,215,281,296,185,371,632,254,487,555,427,362,361,518,341,492,287,214,519,357,351,345,251,250,179,301,294,352,181,288,662,354,247,272,285,327,399,663,210,178,635,318,265,320,458,493,204,212,634,333,633,253,298,438,368,176,275,252,344,314,246,256,661,299,328,660,264,207,630,266,331,274,349,604,255,601,457,346,267,491,322,323,243,340,295,268,273,631,182,292,347,202,177,270,312,372</t>
-  </si>
-  <si>
-    <t>181,555,519,299,320,202,212,206,178,359,518,180,430,179,606,269,457,603,317,244,312,431,345,316,321,214,182,399,203,600,245,360,342,282,458,314,362,361,340,372,204,398,522,201,319,208,280,322,523,426,281,313,213,632,177,556,209,599,0,602,315,341,310,210,488,215,366,264,604,487,365,211,343,207,183,427,176,344,311,631,263,301,368,270,300,279,367,630,318,298,605,601,323,492,491,633,371</t>
-  </si>
-  <si>
-    <t>181,519,205,213,299,242,177,202,206,212,599,178,359,0,518,602,243,310,179,606,269,457,603,488,604,244,487,211,176,214,207,399,203,427,182,183,311,600,360,245,368,458,270,362,361,367,204,184,398,522,298,605,601,201,492,495,462,494,461,208,491,523,426</t>
-  </si>
-  <si>
-    <t>181,242,519,213,299,212,599,0,518,602,464,243,310,606,269,457,603,488,463,604,244,487,211,214,399,182,427,183,311,600,245,368,458,270,367,184,398,298,605,601,495,462,494,461,426</t>
-  </si>
-  <si>
-    <t>519,273,299,213,212,599,274,0,518,602,430,457,488,215,244,487,431,214,399,182,427,183,600,245,368,458,279,367,398,298,601,495,462,494,461,280,426</t>
+    <t>592,500,619,403,405,621,665,427,606,584,639,532,620,514,682,370,510,687,518,505,513,366,591,509,557,587,416,524,250,273,214,671,692,369,212,596,243,615,624,404,399,334,617,215,517,414,523,462,569,616,492,496,680,516,586,595,567,504,668,674,534,522,503,677,495,552,407,598,406,398,411,507,560,647,535,245,667,673,371,573,457,625,418,368,530,599,367,251,648,497,463,498,654,646,372,658,655,683,689,684,600,256,491,527,672,572,335,410,519,531,686,659,408,461,641,533,623,0,678,494,663,604,499,419,614,688,568,528,558,337,601,589,661,511,464,679,669,553,693,643,590,244,660,676,413,501,529,627,554,555,666,662,559,502,691,638,603,506,249,664,274,183,570,415,653,622,417,187,247,288,652,426,561,287,412,409,657,685,675,248,246,618,640,508,188,644,670,594,649,556,525,253,336,493,626,656,526,488,458,512,585,645,252,182,365,681,605,547,583,402,593,213,254,546,487,588,255,690,650</t>
+  </si>
+  <si>
+    <t>592,500,572,451,335,519,665,427,461,606,584,641,639,0,494,518,505,663,604,499,642,614,568,591,440,337,587,601,446,589,661,214,464,442,443,212,453,596,243,615,643,590,244,660,676,441,399,334,215,501,462,569,666,662,496,595,586,638,449,502,445,567,447,504,603,664,183,450,570,270,503,444,495,598,398,426,667,675,371,439,640,573,594,457,269,336,488,368,458,219,599,367,438,497,585,463,498,218,213,182,605,372,593,547,583,546,487,600,452,448,588</t>
+  </si>
+  <si>
+    <t>572,592,519,280,427,461,606,641,584,639,0,494,518,604,614,591,601,587,589,273,214,464,212,596,243,615,590,244,676,399,215,462,595,586,638,603,183,274,495,598,398,426,245,675,371,439,246,640,573,594,457,488,368,458,219,599,367,585,438,463,182,213,218,605,547,583,279,593,372,546,487,600,588</t>
+  </si>
+  <si>
+    <t>451,572,519,280,403,432,427,461,606,584,641,639,0,494,518,604,366,614,440,587,601,446,589,431,214,464,442,443,434,212,430,258,453,243,615,590,244,676,441,399,215,462,257,586,638,449,445,447,603,450,183,444,495,598,398,426,437,436,433,675,439,640,573,457,488,368,458,219,599,367,438,585,463,218,213,182,605,365,402,583,279,547,546,487,600,435,452,448,588</t>
+  </si>
+  <si>
+    <t>573,258,399,518,464,638,605,606,461,427,521,398,457,463,488,243,603,367,214,0,249,372,530,438,368,604,495,462,458,520,639,615,371,426,522,644,614,212,487,257,494,531,519,645,213,439,523,572,250,215,244</t>
+  </si>
+  <si>
+    <t>573,258,399,518,464,638,461,427,398,521,457,463,488,367,214,0,372,530,438,368,462,458,520,639,615,371,426,522,644,526,614,212,525,487,257,531,519,645,213,439,523,572,215</t>
+  </si>
+  <si>
+    <t>491,573,399,518,638,461,427,398,457,488,367,214,0,372,438,368,462,458,319,639,615,371,426,644,526,614,558,525,487,519,645,439,557,572,492,215,318</t>
+  </si>
+  <si>
+    <t>398,558,457,336,372,614,368,462,488,427,151,461,150,615,572,639,525,526,573,371,399,0,426,638,337,518,334,487,367,491,492,519,335,557,458,439,438</t>
+  </si>
+  <si>
+    <t>593,487,457,553,336,519,427,399,526,372,0,403,368,557,461,367,572,518,552,337,573,462,491,426,492,398,525,334,402,458,558,488,371,594,335</t>
+  </si>
+  <si>
+    <t>525,334,427,491,431,366,519,398,552,487,603,638,492,578,0,336,488,604,337,458,365,577,399,639,493,553,368,526,430,518,426,494,335,457,367</t>
+  </si>
+  <si>
+    <t>279,299,357,270,256,276,247,372,427,213,294,178,209,519,286,255,367,350,346,639,634,280,631,599,635,343,272,320,354,248,288,361,184,284,268,312,321,253,351,342,553,492,356,283,263,660,555,493,600,604,203,282,254,329,181,266,325,281,183,368,267,211,316,398,318,292,340,265,285,438,371,176,605,633,359,426,289,348,632,556,271,291,488,210,293,250,201,399,494,327,177,606,324,251,333,487,204,246,179,185,252,326,568,491,310,290,275,202,287,661,311,208,552,663,344,630,301,602,206,273,347,269,439,360,349,662,457,298,257,244,249,331,567,341,207,355,0,182,245,353,601,243,180,328,317,322,314,212,214,323,345,296,458,332,315,518,215,362,242,330,300,638,295,603,264,352,313,274,319</t>
+  </si>
+  <si>
+    <t>279,522,431,488,299,210,270,201,372,399,427,213,178,177,606,209,519,487,204,367,179,319,639,280,631,599,343,320,568,491,310,202,311,208,361,552,630,344,301,602,206,269,360,312,321,342,457,365,553,298,492,263,244,366,567,430,555,600,341,207,604,203,282,181,0,182,281,245,183,368,601,180,317,211,322,314,316,323,345,212,214,458,398,315,318,518,215,362,340,523,300,638,371,176,603,605,264,633,359,426,313,632,556</t>
+  </si>
+  <si>
+    <t>494,206,176,602,242,182,553,203,487,207,208,523,298,299,495,212,604,398,567,638,211,214,205,461,603,360,183,204,599,426,179,368,310,243,522,359,245,202,177,492,518,311,601,606,367,457,178,213,568,519,462,201,600,399,639,269,488,181,605,362,0,270,458,184,244,361,552,427,491</t>
+  </si>
+  <si>
+    <t>604,488,494,311,243,367,638,181,601,182,599,426,213,603,245,184,567,495,242,244,457,183,461,298,462,605,399,606,368,600,639,458,269,553,518,398,427,0,212,487,464,211,299,602,552,463,270,214,310,568,519</t>
+  </si>
+  <si>
+    <t>604,488,494,273,367,638,599,601,182,426,213,603,245,280,495,274,244,457,183,461,298,462,279,399,368,600,639,458,431,553,518,398,427,0,212,487,430,299,602,552,214,215,519</t>
   </si>
   <si>
     <t>151,150,218,219,0,243,244</t>
@@ -235,58 +235,58 @@
     <t>249,243,365,367,366,250,244,0,368</t>
   </si>
   <si>
-    <t>0,402,370,403,374,398,279,439,535,368,530,426,367,431,531,372,375,464,534,533,432,462,547,532,461,243,280,399,427,438,373,366,430,244,365,371,433,546,463</t>
+    <t>398,532,373,438,372,368,462,427,461,572,430,639,244,531,573,371,399,402,431,0,426,638,464,279,374,534,546,367,533,366,535,547,432,403,463,433,280,375,243,370,439,365,530</t>
   </si>
   <si>
     <t>243,279,244,0,280</t>
   </si>
   <si>
-    <t>182,368,181,403,397,402,367,547,546,492,396,398,399,0,426,491,427</t>
-  </si>
-  <si>
-    <t>182,546,181,365,366,398,522,399,523,0,426,427,547</t>
-  </si>
-  <si>
-    <t>487,519,335,488,0,334,518</t>
-  </si>
-  <si>
-    <t>519,335,0,334,518</t>
+    <t>398,402,0,426,638,396,546,368,367,181,491,492,427,182,547,572,403,639,397,573,399</t>
+  </si>
+  <si>
+    <t>522,639,365,568,398,548,547,366,567,523,638,399,427,181,182,549,546,0,426</t>
+  </si>
+  <si>
+    <t>518,334,487,638,0,567,568,488,335,519,639</t>
+  </si>
+  <si>
+    <t>518,599,334,638,0,598,335,519,639</t>
   </si>
   <si>
     <t>0,273,274</t>
   </si>
   <si>
-    <t>600,245,569,368,599,0,367,243,398,318,399,488,568,319,366,244,487,365,481,246,480</t>
-  </si>
-  <si>
-    <t>182,310,273,311,427,0,299,426,298,368,181,340,399,569,398,438,519,518,367,568,274,439,341</t>
-  </si>
-  <si>
-    <t>279,341,552,465,182,0,403,399,402,551,516,398,181,517,280,464,365,366,340</t>
-  </si>
-  <si>
-    <t>341,552,465,182,0,177,288,176,287,551,183,367,464,365,366,340,368</t>
-  </si>
-  <si>
-    <t>365,288,558,207,287,311,366,557,206,368,555,212,556,367,310,213,0</t>
-  </si>
-  <si>
-    <t>420,203,311,176,0,518,269,421,183,661,214,519,660,310,182,202,212,204,184,177,213,270,201,181,211</t>
-  </si>
-  <si>
-    <t>213,212,269,279,485,280,0,486,270</t>
-  </si>
-  <si>
-    <t>495,311,0,310,182,517,244,181,494,516,243</t>
+    <t>368,487,318,244,365,243,480,568,245,599,399,398,246,367,552,366,481,638,0,319,569,553,488,639,600</t>
+  </si>
+  <si>
+    <t>368,569,426,427,681,439,311,650,274,682,273,583,182,399,438,310,584,341,519,518,568,0,181,298,299,649,367,340,398</t>
+  </si>
+  <si>
+    <t>517,402,551,279,552,366,403,598,398,182,181,0,399,464,465,599,365,675,340,516,280,676,341</t>
+  </si>
+  <si>
+    <t>614,340,465,367,183,177,615,464,551,341,583,287,0,176,366,552,288,365,368,182,584</t>
+  </si>
+  <si>
+    <t>507,287,555,365,508,212,206,367,311,288,615,557,207,310,558,0,213,614,368,366,556</t>
+  </si>
+  <si>
+    <t>310,176,211,183,0,204,213,182,202,652,269,519,421,311,214,184,420,201,203,653,270,177,660,661,518,181,212</t>
+  </si>
+  <si>
+    <t>0,485,213,279,614,675,269,212,280,615,270,676,486</t>
+  </si>
+  <si>
+    <t>661,516,495,243,494,244,181,310,182,660,0,517,311</t>
   </si>
   <si>
     <t>151,187,190,150,188,0,189</t>
   </si>
   <si>
-    <t>371,492,334,366,368,365,0,370,335,427,367,462,372,486,491,481,369,480,485,426,461,556,555</t>
-  </si>
-  <si>
-    <t>0,487,488,335,334</t>
+    <t>369,365,555,486,639,335,492,638,367,0,480,461,481,556,371,485,366,426,462,372,368,427,334,370,491</t>
+  </si>
+  <si>
+    <t>487,334,638,0,335,614,488,639,615</t>
   </si>
   <si>
     <t>273,0,274</t>
@@ -298,10 +298,10 @@
     <t>365,366,0,367,368</t>
   </si>
   <si>
-    <t>298,366,244,176,0,183,492,186,491,661,365,299,660,280,182,245,212,177,184,213,185,488,181,279,487</t>
-  </si>
-  <si>
-    <t>243,402,280,430,282,277,275,365,258,257,368,318,319,245,246,367,431,278,244,366,274,462,276,523,182,273,0,281,403,279,522,183,461</t>
+    <t>212,279,185,365,639,245,661,488,176,660,177,492,182,638,186,181,487,0,280,213,184,244,183,366,298,299,491</t>
+  </si>
+  <si>
+    <t>403,402,523,430,280,601,569,278,368,462,650,182,282,461,318,583,277,522,257,276,431,243,365,604,603,279,244,281,319,0,600,599,584,367,568,246,245,183,366,274,273,649,258,602,275</t>
   </si>
   <si>
     <t>495,366,311,310,424,431,397,0,367,368,462,430,461,425,365,396,257,258,494</t>
@@ -313,28 +313,28 @@
     <t>365,273,519,492,491,244,0,274,206,366,310,311,207,517,518,243,516</t>
   </si>
   <si>
+    <t>B_DF3</t>
+  </si>
+  <si>
     <t>B_O</t>
   </si>
   <si>
+    <t>A_XN2</t>
+  </si>
+  <si>
+    <t>A_XB2</t>
+  </si>
+  <si>
+    <t>A_DF1</t>
+  </si>
+  <si>
+    <t>A_O</t>
+  </si>
+  <si>
     <t>B_DF1</t>
   </si>
   <si>
-    <t>A_XN2</t>
-  </si>
-  <si>
-    <t>A_XB2</t>
-  </si>
-  <si>
-    <t>A_DF1</t>
-  </si>
-  <si>
-    <t>A_O</t>
-  </si>
-  <si>
     <t>A_DF2</t>
-  </si>
-  <si>
-    <t>B_DF2</t>
   </si>
   <si>
     <t>B_XB3</t>
@@ -732,7 +732,7 @@
         <v>99</v>
       </c>
       <c r="E2">
-        <v>25404</v>
+        <v>44692</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -749,7 +749,7 @@
         <v>99</v>
       </c>
       <c r="E3">
-        <v>14896</v>
+        <v>23384</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -766,7 +766,7 @@
         <v>99</v>
       </c>
       <c r="E4">
-        <v>8530</v>
+        <v>13106</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -783,7 +783,7 @@
         <v>99</v>
       </c>
       <c r="E5">
-        <v>11870</v>
+        <v>15840</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -800,7 +800,7 @@
         <v>99</v>
       </c>
       <c r="E6">
-        <v>6646</v>
+        <v>8602</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -817,7 +817,7 @@
         <v>99</v>
       </c>
       <c r="E7">
-        <v>6344</v>
+        <v>7496</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -834,7 +834,7 @@
         <v>99</v>
       </c>
       <c r="E8">
-        <v>5180</v>
+        <v>6332</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -848,10 +848,10 @@
         <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E9">
-        <v>6362</v>
+        <v>7266</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -865,10 +865,10 @@
         <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E10">
-        <v>6618</v>
+        <v>7522</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -882,10 +882,10 @@
         <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E11">
-        <v>6400</v>
+        <v>7304</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -902,7 +902,7 @@
         <v>100</v>
       </c>
       <c r="E12">
-        <v>29372</v>
+        <v>30426</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -919,7 +919,7 @@
         <v>100</v>
       </c>
       <c r="E13">
-        <v>18866</v>
+        <v>19920</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -936,7 +936,7 @@
         <v>100</v>
       </c>
       <c r="E14">
-        <v>12232</v>
+        <v>13286</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -953,7 +953,7 @@
         <v>100</v>
       </c>
       <c r="E15">
-        <v>8614</v>
+        <v>9670</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -970,7 +970,7 @@
         <v>100</v>
       </c>
       <c r="E16">
-        <v>8126</v>
+        <v>9182</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1018,10 +1018,10 @@
         <v>73</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E19">
-        <v>6848</v>
+        <v>7248</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1052,10 +1052,10 @@
         <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E21">
-        <v>3210</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1069,10 +1069,10 @@
         <v>76</v>
       </c>
       <c r="D22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E22">
-        <v>1904</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1086,10 +1086,10 @@
         <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E23">
-        <v>1706</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1103,10 +1103,10 @@
         <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E24">
-        <v>1004</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1157,7 +1157,7 @@
         <v>100</v>
       </c>
       <c r="E27">
-        <v>2766</v>
+        <v>3418</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1174,7 +1174,7 @@
         <v>100</v>
       </c>
       <c r="E28">
-        <v>3050</v>
+        <v>3702</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1188,10 +1188,10 @@
         <v>82</v>
       </c>
       <c r="D29" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E29">
-        <v>2156</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1205,10 +1205,10 @@
         <v>83</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E30">
-        <v>2186</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1222,10 +1222,10 @@
         <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E31">
-        <v>2084</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1242,7 +1242,7 @@
         <v>100</v>
       </c>
       <c r="E32">
-        <v>3364</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1256,10 +1256,10 @@
         <v>86</v>
       </c>
       <c r="D33" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E33">
-        <v>1106</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1276,7 +1276,7 @@
         <v>100</v>
       </c>
       <c r="E34">
-        <v>1054</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1310,7 +1310,7 @@
         <v>100</v>
       </c>
       <c r="E36">
-        <v>3864</v>
+        <v>4216</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1324,10 +1324,10 @@
         <v>90</v>
       </c>
       <c r="D37" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E37">
-        <v>1004</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1443,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>100</v>
       </c>
       <c r="E45">
-        <v>3614</v>
+        <v>3966</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1477,10 +1477,10 @@
         <v>95</v>
       </c>
       <c r="D46" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E46">
-        <v>5352</v>
+        <v>6412</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1494,7 +1494,7 @@
         <v>96</v>
       </c>
       <c r="D47" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E47">
         <v>2000</v>
@@ -1511,7 +1511,7 @@
         <v>97</v>
       </c>
       <c r="D48" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E48">
         <v>3068</v>
